--- a/dic_var_dp_pmad_2017_2018.xlsx
+++ b/dic_var_dp_pmad_2017_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\35866\Documents\GitHub\pmad_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\RECENTES\DIEPS\GEREPS\GEREPS\GERÊNCIA\PMAD\PMAD 2017\de_para_2017_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,8 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Domicilios!$A$1:$D$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Domicilios!$A$1:$D$269</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Moradores!$A$1:$D$509</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Domicilios!$A$1:$D$315</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Domicilios!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Moradores!$1:$1</definedName>
   </definedNames>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="702">
   <si>
     <t>referencia</t>
   </si>
@@ -1949,6 +1948,9 @@
     <t>E14 - O Sr(a) contribui para a Previdência Social Pública (INSS)?</t>
   </si>
   <si>
+    <t>Não trabalha</t>
+  </si>
+  <si>
     <t>Trabalha, mas não contribui</t>
   </si>
   <si>
@@ -1995,6 +1997,159 @@
   <si>
     <t>C061 - Local de compras da Família: Alimentação
 (Predominante)</t>
+  </si>
+  <si>
+    <t>C0401_imput</t>
+  </si>
+  <si>
+    <t>C0402_imput</t>
+  </si>
+  <si>
+    <t>C0403_imput</t>
+  </si>
+  <si>
+    <t>C0404_imput</t>
+  </si>
+  <si>
+    <t>C0405_imput</t>
+  </si>
+  <si>
+    <t>C0406_imput</t>
+  </si>
+  <si>
+    <t>C0407_imput</t>
+  </si>
+  <si>
+    <t>C0408_imput</t>
+  </si>
+  <si>
+    <t>C0409_imput</t>
+  </si>
+  <si>
+    <t>C0410_imput</t>
+  </si>
+  <si>
+    <t>C0411_imput</t>
+  </si>
+  <si>
+    <t>C0412_imput</t>
+  </si>
+  <si>
+    <t>C0413_imput</t>
+  </si>
+  <si>
+    <t>C0414_imput</t>
+  </si>
+  <si>
+    <t>C0415_imput</t>
+  </si>
+  <si>
+    <t>C0416_imput</t>
+  </si>
+  <si>
+    <t>C0417_imput</t>
+  </si>
+  <si>
+    <t>C0418_imput</t>
+  </si>
+  <si>
+    <t>C0419_imput</t>
+  </si>
+  <si>
+    <t>C0420_imput</t>
+  </si>
+  <si>
+    <t>C0421_imput</t>
+  </si>
+  <si>
+    <t>C0422_imput</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0401 - Quantas Placas de energia/aquecedor solar?</t>
+  </si>
+  <si>
+    <t>Valor imputado</t>
+  </si>
+  <si>
+    <t>Valor não imputado</t>
+  </si>
+  <si>
+    <t>peso_pre</t>
+  </si>
+  <si>
+    <t>Inverso da fração amostral</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>pop_proj</t>
+  </si>
+  <si>
+    <t>Estimativa populacional</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0402 - Quantos Ar condicionados?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0403 - Quantos Circuladores de ar e/ou ventiladores?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0404 - Quantos Fogões?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0405 - Quantos Fornos micro-ondas?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0406 - Quantos Fornos elétricos?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0407 - Quantos Freezers?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0408 - Quantas Geladeiras?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0409 - Quantos Ipod e similares?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0410 - Quantas Máquinas de lavar roupa?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0411 - Quantas Máquinas de lavar louça?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0412 - Quantas Máquinas de fotográfica digital?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0413 - Quantos Microcomputadores/Desktop?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0414 - Quantos Notebook/Laptop?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0415 - Quantos Tablets/Ipad?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0416 - Quantos Tanquinhos elétricos?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0417 - Quantos Telefones fixos?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0418 - Quantos Telefones celulares pré-pago?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0419 - Quantos Telefones celulares pós-pago?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0420 - Quantos Televisores (tubo)?</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0421 - Quantos Televisores tela fina/plana</t>
+  </si>
+  <si>
+    <t>Marcação de imputação para a questão C0422 - Quantos Umidificadores?</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2401,40 +2556,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2449,22 +2584,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2479,14 +2611,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -2823,14 +2955,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -2935,10 +3069,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="108" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="55">
@@ -2949,10 +3083,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="107" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="57">
@@ -2963,10 +3097,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="107" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="59">
@@ -2977,10 +3111,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="104" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="61">
@@ -2991,10 +3125,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="63">
@@ -3005,24 +3139,24 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="65">
         <v>3</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="63">
@@ -3033,10 +3167,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="65">
@@ -3047,10 +3181,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="63">
@@ -3061,10 +3195,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="65">
@@ -3075,10 +3209,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="105" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="67">
@@ -3089,10 +3223,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="106" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="69">
@@ -3103,10 +3237,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="54">
@@ -3117,10 +3251,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="69">
@@ -3131,10 +3265,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="54">
@@ -3145,10 +3279,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="69">
@@ -3159,10 +3293,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="55">
@@ -3173,10 +3307,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="57">
@@ -3187,10 +3321,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="59">
@@ -3201,10 +3335,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="57">
@@ -3215,10 +3349,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="59">
@@ -3229,10 +3363,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="57">
@@ -3243,10 +3377,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="59">
@@ -3257,10 +3391,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="57">
@@ -3271,10 +3405,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="59">
@@ -3285,10 +3419,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="57">
@@ -3299,10 +3433,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="104" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="71">
@@ -3313,10 +3447,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="101" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="73">
@@ -3327,10 +3461,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="105" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="75">
@@ -3341,10 +3475,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="106" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="69">
@@ -3355,10 +3489,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="54">
@@ -3369,10 +3503,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="69">
@@ -3383,10 +3517,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="104" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="77">
@@ -3397,10 +3531,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="101" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="65">
@@ -3411,10 +3545,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="101" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="63">
@@ -3425,10 +3559,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="101" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="65">
@@ -3439,10 +3573,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="101" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="63">
@@ -3453,10 +3587,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="101" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="65">
@@ -3467,10 +3601,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="110" t="s">
+      <c r="B46" s="101" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="63">
@@ -3481,10 +3615,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="111" t="s">
+      <c r="A47" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="111" t="s">
+      <c r="B47" s="105" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="79">
@@ -3522,7 +3656,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="53" t="s">
         <v>28</v>
       </c>
@@ -3537,10 +3671,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="104" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="85">
@@ -3551,10 +3685,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="101" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="87">
@@ -3565,10 +3699,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="101" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="73">
@@ -3579,10 +3713,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="111" t="s">
+      <c r="A54" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="111" t="s">
+      <c r="B54" s="105" t="s">
         <v>31</v>
       </c>
       <c r="C54" s="75">
@@ -3593,10 +3727,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="112" t="s">
+      <c r="A55" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="106" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="69">
@@ -3607,10 +3741,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="113" t="s">
+      <c r="B56" s="107" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="55">
@@ -3621,10 +3755,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="B57" s="107" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="57">
@@ -3635,10 +3769,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="113" t="s">
+      <c r="B58" s="107" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="59">
@@ -3649,10 +3783,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="107" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="57">
@@ -3663,10 +3797,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="109" t="s">
+      <c r="A60" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="104" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="71">
@@ -3677,10 +3811,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="101" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="65">
@@ -3691,10 +3825,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="101" t="s">
         <v>35</v>
       </c>
       <c r="C62" s="63">
@@ -3705,10 +3839,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="105" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="79">
@@ -3719,10 +3853,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="104" t="s">
         <v>37</v>
       </c>
       <c r="C64" s="71">
@@ -3733,10 +3867,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="110" t="s">
+      <c r="B65" s="101" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="65">
@@ -3747,10 +3881,10 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="110" t="s">
+      <c r="A66" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="110" t="s">
+      <c r="B66" s="101" t="s">
         <v>37</v>
       </c>
       <c r="C66" s="63">
@@ -3761,10 +3895,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="110" t="s">
+      <c r="B67" s="101" t="s">
         <v>37</v>
       </c>
       <c r="C67" s="73">
@@ -3775,10 +3909,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="111" t="s">
+      <c r="A68" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="111" t="s">
+      <c r="B68" s="105" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="75">
@@ -3789,10 +3923,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="109" t="s">
+      <c r="B69" s="104" t="s">
         <v>39</v>
       </c>
       <c r="C69" s="85">
@@ -3803,10 +3937,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="110" t="s">
+      <c r="A70" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="110" t="s">
+      <c r="B70" s="101" t="s">
         <v>39</v>
       </c>
       <c r="C70" s="87">
@@ -3817,10 +3951,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="110" t="s">
+      <c r="B71" s="101" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="73">
@@ -3831,10 +3965,10 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="111" t="s">
+      <c r="B72" s="105" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="89">
@@ -3845,10 +3979,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="112" t="s">
+      <c r="B73" s="106" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="57">
@@ -3859,10 +3993,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="113" t="s">
+      <c r="A74" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="113" t="s">
+      <c r="B74" s="107" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="59">
@@ -3873,10 +4007,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="113" t="s">
+      <c r="A75" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="113" t="s">
+      <c r="B75" s="107" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="57">
@@ -3887,10 +4021,10 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="113" t="s">
+      <c r="A76" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="113" t="s">
+      <c r="B76" s="107" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="59">
@@ -3901,10 +4035,10 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="109" t="s">
+      <c r="A77" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="109" t="s">
+      <c r="B77" s="104" t="s">
         <v>43</v>
       </c>
       <c r="C77" s="61">
@@ -3915,10 +4049,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="110" t="s">
+      <c r="A78" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="110" t="s">
+      <c r="B78" s="101" t="s">
         <v>43</v>
       </c>
       <c r="C78" s="63">
@@ -3929,10 +4063,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B79" s="110" t="s">
+      <c r="B79" s="101" t="s">
         <v>43</v>
       </c>
       <c r="C79" s="65">
@@ -3943,10 +4077,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="110" t="s">
+      <c r="B80" s="101" t="s">
         <v>43</v>
       </c>
       <c r="C80" s="63">
@@ -3957,10 +4091,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="111" t="s">
+      <c r="A81" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B81" s="111" t="s">
+      <c r="B81" s="105" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="79">
@@ -3971,10 +4105,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="112" t="s">
+      <c r="A82" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="112" t="s">
+      <c r="B82" s="106" t="s">
         <v>45</v>
       </c>
       <c r="C82" s="59">
@@ -3985,10 +4119,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="113" t="s">
+      <c r="A83" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="113" t="s">
+      <c r="B83" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C83" s="69">
@@ -3999,10 +4133,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="113" t="s">
+      <c r="B84" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="54">
@@ -4013,10 +4147,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="113" t="s">
+      <c r="A85" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="113" t="s">
+      <c r="B85" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C85" s="69">
@@ -4027,10 +4161,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="113" t="s">
+      <c r="B86" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C86" s="54">
@@ -4041,10 +4175,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="109" t="s">
+      <c r="A87" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="109" t="s">
+      <c r="B87" s="104" t="s">
         <v>47</v>
       </c>
       <c r="C87" s="85">
@@ -4055,10 +4189,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="110" t="s">
+      <c r="A88" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B88" s="110" t="s">
+      <c r="B88" s="101" t="s">
         <v>47</v>
       </c>
       <c r="C88" s="55">
@@ -4069,10 +4203,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="110" t="s">
+      <c r="A89" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="110" t="s">
+      <c r="B89" s="101" t="s">
         <v>47</v>
       </c>
       <c r="C89" s="65">
@@ -4083,10 +4217,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="111" t="s">
+      <c r="A90" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="111" t="s">
+      <c r="B90" s="105" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="67">
@@ -4097,10 +4231,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="112" t="s">
+      <c r="A91" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="112" t="s">
+      <c r="B91" s="106" t="s">
         <v>49</v>
       </c>
       <c r="C91" s="57">
@@ -4111,10 +4245,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="113" t="s">
+      <c r="A92" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="107" t="s">
         <v>49</v>
       </c>
       <c r="C92" s="59">
@@ -4125,10 +4259,10 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="109" t="s">
+      <c r="A93" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="109" t="s">
+      <c r="B93" s="104" t="s">
         <v>51</v>
       </c>
       <c r="C93" s="61">
@@ -4139,10 +4273,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="111" t="s">
+      <c r="A94" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B94" s="111" t="s">
+      <c r="B94" s="105" t="s">
         <v>51</v>
       </c>
       <c r="C94" s="67">
@@ -4153,10 +4287,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="112" t="s">
+      <c r="A95" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="112" t="s">
+      <c r="B95" s="106" t="s">
         <v>53</v>
       </c>
       <c r="C95" s="57">
@@ -4167,10 +4301,10 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B96" s="113" t="s">
+      <c r="B96" s="107" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="59">
@@ -4181,10 +4315,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="109" t="s">
+      <c r="A97" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="109" t="s">
+      <c r="B97" s="104" t="s">
         <v>55</v>
       </c>
       <c r="C97" s="61">
@@ -4195,10 +4329,10 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="111" t="s">
+      <c r="A98" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="111" t="s">
+      <c r="B98" s="105" t="s">
         <v>55</v>
       </c>
       <c r="C98" s="67">
@@ -4209,10 +4343,10 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="112" t="s">
+      <c r="A99" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="112" t="s">
+      <c r="B99" s="106" t="s">
         <v>57</v>
       </c>
       <c r="C99" s="69">
@@ -4223,10 +4357,10 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="113" t="s">
+      <c r="A100" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B100" s="113" t="s">
+      <c r="B100" s="107" t="s">
         <v>57</v>
       </c>
       <c r="C100" s="54">
@@ -4237,10 +4371,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="109" t="s">
+      <c r="A101" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B101" s="109" t="s">
+      <c r="B101" s="104" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="85">
@@ -4251,10 +4385,10 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="111" t="s">
+      <c r="A102" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="B102" s="111" t="s">
+      <c r="B102" s="105" t="s">
         <v>59</v>
       </c>
       <c r="C102" s="75">
@@ -4265,10 +4399,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="112" t="s">
+      <c r="A103" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="B103" s="112" t="s">
+      <c r="B103" s="106" t="s">
         <v>61</v>
       </c>
       <c r="C103" s="69">
@@ -4279,10 +4413,10 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="113" t="s">
+      <c r="A104" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B104" s="113" t="s">
+      <c r="B104" s="107" t="s">
         <v>61</v>
       </c>
       <c r="C104" s="55">
@@ -4293,10 +4427,10 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="109" t="s">
+      <c r="A105" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B105" s="109" t="s">
+      <c r="B105" s="104" t="s">
         <v>63</v>
       </c>
       <c r="C105" s="61">
@@ -4307,10 +4441,10 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="111" t="s">
+      <c r="A106" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="111" t="s">
+      <c r="B106" s="105" t="s">
         <v>63</v>
       </c>
       <c r="C106" s="67">
@@ -4321,10 +4455,10 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="112" t="s">
+      <c r="A107" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="112" t="s">
+      <c r="B107" s="106" t="s">
         <v>65</v>
       </c>
       <c r="C107" s="57">
@@ -4335,10 +4469,10 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="113" t="s">
+      <c r="A108" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="113" t="s">
+      <c r="B108" s="107" t="s">
         <v>65</v>
       </c>
       <c r="C108" s="59">
@@ -4349,10 +4483,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="109" t="s">
+      <c r="A109" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B109" s="109" t="s">
+      <c r="B109" s="104" t="s">
         <v>67</v>
       </c>
       <c r="C109" s="61">
@@ -4363,10 +4497,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="111" t="s">
+      <c r="A110" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="B110" s="111" t="s">
+      <c r="B110" s="105" t="s">
         <v>67</v>
       </c>
       <c r="C110" s="67">
@@ -4377,10 +4511,10 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="112" t="s">
+      <c r="A111" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B111" s="112" t="s">
+      <c r="B111" s="106" t="s">
         <v>69</v>
       </c>
       <c r="C111" s="57">
@@ -4391,10 +4525,10 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="113" t="s">
+      <c r="A112" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B112" s="113" t="s">
+      <c r="B112" s="107" t="s">
         <v>69</v>
       </c>
       <c r="C112" s="59">
@@ -4405,10 +4539,10 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B113" s="109" t="s">
+      <c r="B113" s="104" t="s">
         <v>71</v>
       </c>
       <c r="C113" s="61">
@@ -4419,10 +4553,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="111" t="s">
+      <c r="A114" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B114" s="111" t="s">
+      <c r="B114" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C114" s="91">
@@ -4433,10 +4567,10 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="112" t="s">
+      <c r="A115" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B115" s="112" t="s">
+      <c r="B115" s="106" t="s">
         <v>73</v>
       </c>
       <c r="C115" s="69">
@@ -4447,10 +4581,10 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="113" t="s">
+      <c r="A116" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="113" t="s">
+      <c r="B116" s="107" t="s">
         <v>73</v>
       </c>
       <c r="C116" s="54">
@@ -4461,10 +4595,10 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="109" t="s">
+      <c r="A117" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B117" s="109" t="s">
+      <c r="B117" s="104" t="s">
         <v>75</v>
       </c>
       <c r="C117" s="85">
@@ -4475,10 +4609,10 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="111" t="s">
+      <c r="A118" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="111" t="s">
+      <c r="B118" s="105" t="s">
         <v>75</v>
       </c>
       <c r="C118" s="75">
@@ -4489,10 +4623,10 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="112" t="s">
+      <c r="A119" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="B119" s="112" t="s">
+      <c r="B119" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C119" s="69">
@@ -4503,10 +4637,10 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="113" t="s">
+      <c r="A120" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="B120" s="113" t="s">
+      <c r="B120" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C120" s="55">
@@ -4517,10 +4651,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="109" t="s">
+      <c r="A121" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B121" s="109" t="s">
+      <c r="B121" s="104" t="s">
         <v>79</v>
       </c>
       <c r="C121" s="61">
@@ -4531,10 +4665,10 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="111" t="s">
+      <c r="A122" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B122" s="111" t="s">
+      <c r="B122" s="105" t="s">
         <v>79</v>
       </c>
       <c r="C122" s="67">
@@ -4545,10 +4679,10 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="112" t="s">
+      <c r="A123" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B123" s="112" t="s">
+      <c r="B123" s="106" t="s">
         <v>81</v>
       </c>
       <c r="C123" s="57">
@@ -4559,10 +4693,10 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="113" t="s">
+      <c r="A124" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B124" s="113" t="s">
+      <c r="B124" s="107" t="s">
         <v>81</v>
       </c>
       <c r="C124" s="59">
@@ -4573,10 +4707,10 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="109" t="s">
+      <c r="B125" s="104" t="s">
         <v>83</v>
       </c>
       <c r="C125" s="61">
@@ -4587,10 +4721,10 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="111" t="s">
+      <c r="A126" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B126" s="111" t="s">
+      <c r="B126" s="105" t="s">
         <v>83</v>
       </c>
       <c r="C126" s="67">
@@ -4601,10 +4735,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="112" t="s">
+      <c r="A127" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B127" s="112" t="s">
+      <c r="B127" s="106" t="s">
         <v>85</v>
       </c>
       <c r="C127" s="57">
@@ -4615,10 +4749,10 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="113" t="s">
+      <c r="A128" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B128" s="113" t="s">
+      <c r="B128" s="107" t="s">
         <v>85</v>
       </c>
       <c r="C128" s="59">
@@ -4629,10 +4763,10 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="109" t="s">
+      <c r="A129" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B129" s="109" t="s">
+      <c r="B129" s="104" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="61">
@@ -4643,10 +4777,10 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="110" t="s">
+      <c r="A130" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B130" s="110" t="s">
+      <c r="B130" s="101" t="s">
         <v>87</v>
       </c>
       <c r="C130" s="63">
@@ -4657,10 +4791,10 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="110" t="s">
+      <c r="A131" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B131" s="110" t="s">
+      <c r="B131" s="101" t="s">
         <v>87</v>
       </c>
       <c r="C131" s="73">
@@ -4671,10 +4805,10 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="110" t="s">
+      <c r="A132" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B132" s="110" t="s">
+      <c r="B132" s="101" t="s">
         <v>87</v>
       </c>
       <c r="C132" s="87">
@@ -4685,10 +4819,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="110" t="s">
+      <c r="A133" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B133" s="110" t="s">
+      <c r="B133" s="101" t="s">
         <v>87</v>
       </c>
       <c r="C133" s="73">
@@ -4699,10 +4833,10 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="110" t="s">
+      <c r="A134" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B134" s="110" t="s">
+      <c r="B134" s="101" t="s">
         <v>87</v>
       </c>
       <c r="C134" s="87">
@@ -4713,10 +4847,10 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="111" t="s">
+      <c r="A135" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="B135" s="111" t="s">
+      <c r="B135" s="105" t="s">
         <v>87</v>
       </c>
       <c r="C135" s="93">
@@ -4727,10 +4861,10 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="109" t="s">
+      <c r="A136" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B136" s="109" t="s">
+      <c r="B136" s="104" t="s">
         <v>89</v>
       </c>
       <c r="C136" s="77">
@@ -4741,10 +4875,10 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="110" t="s">
+      <c r="A137" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="B137" s="110" t="s">
+      <c r="B137" s="101" t="s">
         <v>89</v>
       </c>
       <c r="C137" s="65">
@@ -4755,10 +4889,10 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="111" t="s">
+      <c r="A138" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="B138" s="111" t="s">
+      <c r="B138" s="105" t="s">
         <v>89</v>
       </c>
       <c r="C138" s="67">
@@ -4769,10 +4903,10 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="109" t="s">
+      <c r="A139" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B139" s="109" t="s">
+      <c r="B139" s="104" t="s">
         <v>91</v>
       </c>
       <c r="C139" s="61">
@@ -4783,10 +4917,10 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="110" t="s">
+      <c r="A140" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B140" s="110" t="s">
+      <c r="B140" s="101" t="s">
         <v>91</v>
       </c>
       <c r="C140" s="63">
@@ -4797,10 +4931,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="111" t="s">
+      <c r="A141" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="B141" s="111" t="s">
+      <c r="B141" s="105" t="s">
         <v>91</v>
       </c>
       <c r="C141" s="79">
@@ -4811,10 +4945,10 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B142" s="109" t="s">
+      <c r="B142" s="104" t="s">
         <v>93</v>
       </c>
       <c r="C142" s="59">
@@ -4825,10 +4959,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="113" t="s">
+      <c r="A143" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="B143" s="113" t="s">
+      <c r="B143" s="107" t="s">
         <v>93</v>
       </c>
       <c r="C143" s="57">
@@ -4839,10 +4973,10 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="111" t="s">
+      <c r="A144" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="B144" s="111" t="s">
+      <c r="B144" s="105" t="s">
         <v>93</v>
       </c>
       <c r="C144" s="59">
@@ -4853,10 +4987,10 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="109" t="s">
+      <c r="A145" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B145" s="109" t="s">
+      <c r="B145" s="104" t="s">
         <v>95</v>
       </c>
       <c r="C145" s="61">
@@ -4867,10 +5001,10 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="110" t="s">
+      <c r="A146" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B146" s="110" t="s">
+      <c r="B146" s="101" t="s">
         <v>95</v>
       </c>
       <c r="C146" s="63">
@@ -4881,10 +5015,10 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="111" t="s">
+      <c r="A147" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="B147" s="111" t="s">
+      <c r="B147" s="105" t="s">
         <v>95</v>
       </c>
       <c r="C147" s="93">
@@ -5469,11 +5603,11 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="109" t="s">
+      <c r="A189" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B189" s="109" t="s">
-        <v>649</v>
+      <c r="B189" s="104" t="s">
+        <v>650</v>
       </c>
       <c r="C189" s="61">
         <v>0</v>
@@ -5483,8 +5617,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="117"/>
-      <c r="B190" s="117"/>
+      <c r="A190" s="102"/>
+      <c r="B190" s="102"/>
       <c r="C190" s="63">
         <v>1</v>
       </c>
@@ -5493,11 +5627,11 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="110" t="s">
+      <c r="A191" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="B191" s="110" t="s">
-        <v>644</v>
+      <c r="B191" s="101" t="s">
+        <v>645</v>
       </c>
       <c r="C191" s="65">
         <v>2</v>
@@ -5507,8 +5641,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="117"/>
-      <c r="B192" s="117"/>
+      <c r="A192" s="102"/>
+      <c r="B192" s="102"/>
       <c r="C192" s="63">
         <v>3</v>
       </c>
@@ -5517,11 +5651,11 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="110" t="s">
+      <c r="A193" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="B193" s="110" t="s">
-        <v>645</v>
+      <c r="B193" s="101" t="s">
+        <v>646</v>
       </c>
       <c r="C193" s="65">
         <v>4</v>
@@ -5531,8 +5665,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="117"/>
-      <c r="B194" s="117"/>
+      <c r="A194" s="102"/>
+      <c r="B194" s="102"/>
       <c r="C194" s="63">
         <v>5</v>
       </c>
@@ -5541,11 +5675,11 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="110" t="s">
+      <c r="A195" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="B195" s="110" t="s">
-        <v>646</v>
+      <c r="B195" s="101" t="s">
+        <v>647</v>
       </c>
       <c r="C195" s="73">
         <v>6</v>
@@ -5555,8 +5689,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="117"/>
-      <c r="B196" s="117"/>
+      <c r="A196" s="102"/>
+      <c r="B196" s="102"/>
       <c r="C196" s="87">
         <v>7</v>
       </c>
@@ -5565,11 +5699,11 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="110" t="s">
+      <c r="A197" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="B197" s="110" t="s">
-        <v>647</v>
+      <c r="B197" s="101" t="s">
+        <v>648</v>
       </c>
       <c r="C197" s="73">
         <v>8</v>
@@ -5579,8 +5713,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="117"/>
-      <c r="B198" s="117"/>
+      <c r="A198" s="102"/>
+      <c r="B198" s="102"/>
       <c r="C198" s="87">
         <v>9</v>
       </c>
@@ -5589,11 +5723,11 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="110" t="s">
+      <c r="A199" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="B199" s="110" t="s">
-        <v>648</v>
+      <c r="B199" s="101" t="s">
+        <v>649</v>
       </c>
       <c r="C199" s="73">
         <v>10</v>
@@ -5603,8 +5737,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="117"/>
-      <c r="B200" s="117"/>
+      <c r="A200" s="102"/>
+      <c r="B200" s="102"/>
       <c r="C200" s="55">
         <v>11</v>
       </c>
@@ -5613,8 +5747,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="117"/>
-      <c r="B201" s="117"/>
+      <c r="A201" s="102"/>
+      <c r="B201" s="102"/>
       <c r="C201" s="65">
         <v>12</v>
       </c>
@@ -5623,8 +5757,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="117"/>
-      <c r="B202" s="117"/>
+      <c r="A202" s="102"/>
+      <c r="B202" s="102"/>
       <c r="C202" s="63">
         <v>13</v>
       </c>
@@ -5633,8 +5767,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="117"/>
-      <c r="B203" s="117"/>
+      <c r="A203" s="102"/>
+      <c r="B203" s="102"/>
       <c r="C203" s="65">
         <v>14</v>
       </c>
@@ -5643,8 +5777,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="117"/>
-      <c r="B204" s="117"/>
+      <c r="A204" s="102"/>
+      <c r="B204" s="102"/>
       <c r="C204" s="63">
         <v>15</v>
       </c>
@@ -5653,8 +5787,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="117"/>
-      <c r="B205" s="117"/>
+      <c r="A205" s="102"/>
+      <c r="B205" s="102"/>
       <c r="C205" s="65">
         <v>16</v>
       </c>
@@ -5663,8 +5797,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="117"/>
-      <c r="B206" s="117"/>
+      <c r="A206" s="102"/>
+      <c r="B206" s="102"/>
       <c r="C206" s="63">
         <v>17</v>
       </c>
@@ -5673,8 +5807,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="117"/>
-      <c r="B207" s="117"/>
+      <c r="A207" s="102"/>
+      <c r="B207" s="102"/>
       <c r="C207" s="65">
         <v>18</v>
       </c>
@@ -5683,8 +5817,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="117"/>
-      <c r="B208" s="117"/>
+      <c r="A208" s="102"/>
+      <c r="B208" s="102"/>
       <c r="C208" s="63">
         <v>19</v>
       </c>
@@ -5693,8 +5827,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="117"/>
-      <c r="B209" s="117"/>
+      <c r="A209" s="102"/>
+      <c r="B209" s="102"/>
       <c r="C209" s="65">
         <v>20</v>
       </c>
@@ -5703,8 +5837,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="117"/>
-      <c r="B210" s="117"/>
+      <c r="A210" s="102"/>
+      <c r="B210" s="102"/>
       <c r="C210" s="63">
         <v>21</v>
       </c>
@@ -5713,8 +5847,8 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="117"/>
-      <c r="B211" s="117"/>
+      <c r="A211" s="102"/>
+      <c r="B211" s="102"/>
       <c r="C211" s="73">
         <v>22</v>
       </c>
@@ -5723,8 +5857,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="117"/>
-      <c r="B212" s="117"/>
+      <c r="A212" s="102"/>
+      <c r="B212" s="102"/>
       <c r="C212" s="87">
         <v>23</v>
       </c>
@@ -5733,8 +5867,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="117"/>
-      <c r="B213" s="117"/>
+      <c r="A213" s="102"/>
+      <c r="B213" s="102"/>
       <c r="C213" s="73">
         <v>24</v>
       </c>
@@ -5743,8 +5877,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="117"/>
-      <c r="B214" s="117"/>
+      <c r="A214" s="102"/>
+      <c r="B214" s="102"/>
       <c r="C214" s="87">
         <v>25</v>
       </c>
@@ -5753,8 +5887,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="117"/>
-      <c r="B215" s="117"/>
+      <c r="A215" s="102"/>
+      <c r="B215" s="102"/>
       <c r="C215" s="73">
         <v>26</v>
       </c>
@@ -5763,8 +5897,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="117"/>
-      <c r="B216" s="117"/>
+      <c r="A216" s="102"/>
+      <c r="B216" s="102"/>
       <c r="C216" s="55">
         <v>27</v>
       </c>
@@ -5773,8 +5907,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="117"/>
-      <c r="B217" s="117"/>
+      <c r="A217" s="102"/>
+      <c r="B217" s="102"/>
       <c r="C217" s="65">
         <v>28</v>
       </c>
@@ -5783,8 +5917,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="117"/>
-      <c r="B218" s="117"/>
+      <c r="A218" s="102"/>
+      <c r="B218" s="102"/>
       <c r="C218" s="63">
         <v>29</v>
       </c>
@@ -5793,8 +5927,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="117"/>
-      <c r="B219" s="117"/>
+      <c r="A219" s="102"/>
+      <c r="B219" s="102"/>
       <c r="C219" s="65">
         <v>30</v>
       </c>
@@ -5803,8 +5937,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="117"/>
-      <c r="B220" s="117"/>
+      <c r="A220" s="102"/>
+      <c r="B220" s="102"/>
       <c r="C220" s="63">
         <v>31</v>
       </c>
@@ -5813,8 +5947,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="117"/>
-      <c r="B221" s="117"/>
+      <c r="A221" s="102"/>
+      <c r="B221" s="102"/>
       <c r="C221" s="65">
         <v>32</v>
       </c>
@@ -5823,8 +5957,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="117"/>
-      <c r="B222" s="117"/>
+      <c r="A222" s="102"/>
+      <c r="B222" s="102"/>
       <c r="C222" s="63">
         <v>41</v>
       </c>
@@ -5833,8 +5967,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="117"/>
-      <c r="B223" s="117"/>
+      <c r="A223" s="102"/>
+      <c r="B223" s="102"/>
       <c r="C223" s="65">
         <v>42</v>
       </c>
@@ -5843,8 +5977,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="117"/>
-      <c r="B224" s="117"/>
+      <c r="A224" s="102"/>
+      <c r="B224" s="102"/>
       <c r="C224" s="63">
         <v>43</v>
       </c>
@@ -5853,8 +5987,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="117"/>
-      <c r="B225" s="117"/>
+      <c r="A225" s="102"/>
+      <c r="B225" s="102"/>
       <c r="C225" s="65">
         <v>44</v>
       </c>
@@ -5863,8 +5997,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="117"/>
-      <c r="B226" s="117"/>
+      <c r="A226" s="102"/>
+      <c r="B226" s="102"/>
       <c r="C226" s="63">
         <v>45</v>
       </c>
@@ -5873,8 +6007,8 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="117"/>
-      <c r="B227" s="117"/>
+      <c r="A227" s="102"/>
+      <c r="B227" s="102"/>
       <c r="C227" s="73">
         <v>46</v>
       </c>
@@ -5883,8 +6017,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="117"/>
-      <c r="B228" s="117"/>
+      <c r="A228" s="102"/>
+      <c r="B228" s="102"/>
       <c r="C228" s="87">
         <v>47</v>
       </c>
@@ -5893,8 +6027,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="117"/>
-      <c r="B229" s="117"/>
+      <c r="A229" s="102"/>
+      <c r="B229" s="102"/>
       <c r="C229" s="73">
         <v>48</v>
       </c>
@@ -5903,8 +6037,8 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="117"/>
-      <c r="B230" s="117"/>
+      <c r="A230" s="102"/>
+      <c r="B230" s="102"/>
       <c r="C230" s="87">
         <v>49</v>
       </c>
@@ -5913,8 +6047,8 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="117"/>
-      <c r="B231" s="117"/>
+      <c r="A231" s="102"/>
+      <c r="B231" s="102"/>
       <c r="C231" s="73">
         <v>50</v>
       </c>
@@ -5923,8 +6057,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="117"/>
-      <c r="B232" s="117"/>
+      <c r="A232" s="102"/>
+      <c r="B232" s="102"/>
       <c r="C232" s="55">
         <v>51</v>
       </c>
@@ -5933,8 +6067,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="117"/>
-      <c r="B233" s="117"/>
+      <c r="A233" s="102"/>
+      <c r="B233" s="102"/>
       <c r="C233" s="65">
         <v>52</v>
       </c>
@@ -5943,8 +6077,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="117"/>
-      <c r="B234" s="117"/>
+      <c r="A234" s="102"/>
+      <c r="B234" s="102"/>
       <c r="C234" s="63">
         <v>53</v>
       </c>
@@ -5953,8 +6087,8 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="117"/>
-      <c r="B235" s="117"/>
+      <c r="A235" s="102"/>
+      <c r="B235" s="102"/>
       <c r="C235" s="65">
         <v>54</v>
       </c>
@@ -5963,8 +6097,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="117"/>
-      <c r="B236" s="117"/>
+      <c r="A236" s="102"/>
+      <c r="B236" s="102"/>
       <c r="C236" s="63">
         <v>55</v>
       </c>
@@ -5973,8 +6107,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="117"/>
-      <c r="B237" s="117"/>
+      <c r="A237" s="102"/>
+      <c r="B237" s="102"/>
       <c r="C237" s="65">
         <v>56</v>
       </c>
@@ -5983,8 +6117,8 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="116"/>
-      <c r="B238" s="116"/>
+      <c r="A238" s="103"/>
+      <c r="B238" s="103"/>
       <c r="C238" s="67">
         <v>88</v>
       </c>
@@ -5993,10 +6127,10 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="109" t="s">
+      <c r="A239" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="B239" s="109" t="s">
+      <c r="B239" s="104" t="s">
         <v>185</v>
       </c>
       <c r="C239" s="61">
@@ -6007,10 +6141,10 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="110" t="s">
+      <c r="A240" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="B240" s="110" t="s">
+      <c r="B240" s="101" t="s">
         <v>185</v>
       </c>
       <c r="C240" s="63">
@@ -6021,10 +6155,10 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="110" t="s">
+      <c r="A241" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="B241" s="110" t="s">
+      <c r="B241" s="101" t="s">
         <v>185</v>
       </c>
       <c r="C241" s="65">
@@ -6035,10 +6169,10 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="111" t="s">
+      <c r="A242" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="B242" s="111" t="s">
+      <c r="B242" s="105" t="s">
         <v>185</v>
       </c>
       <c r="C242" s="91">
@@ -6049,10 +6183,10 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="112" t="s">
+      <c r="A243" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="B243" s="112" t="s">
+      <c r="B243" s="106" t="s">
         <v>187</v>
       </c>
       <c r="C243" s="69">
@@ -6063,10 +6197,10 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="113" t="s">
+      <c r="A244" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B244" s="113" t="s">
+      <c r="B244" s="107" t="s">
         <v>187</v>
       </c>
       <c r="C244" s="54">
@@ -6077,10 +6211,10 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="113" t="s">
+      <c r="A245" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B245" s="113" t="s">
+      <c r="B245" s="107" t="s">
         <v>187</v>
       </c>
       <c r="C245" s="69">
@@ -6091,10 +6225,10 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="113" t="s">
+      <c r="A246" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B246" s="113" t="s">
+      <c r="B246" s="107" t="s">
         <v>187</v>
       </c>
       <c r="C246" s="54">
@@ -6105,10 +6239,10 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="113" t="s">
+      <c r="A247" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B247" s="113" t="s">
+      <c r="B247" s="107" t="s">
         <v>187</v>
       </c>
       <c r="C247" s="69">
@@ -6119,10 +6253,10 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="109" t="s">
+      <c r="A248" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B248" s="109" t="s">
+      <c r="B248" s="104" t="s">
         <v>189</v>
       </c>
       <c r="C248" s="77">
@@ -6133,10 +6267,10 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="110" t="s">
+      <c r="A249" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B249" s="110" t="s">
+      <c r="B249" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C249" s="65">
@@ -6147,10 +6281,10 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="110" t="s">
+      <c r="A250" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B250" s="110" t="s">
+      <c r="B250" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C250" s="63">
@@ -6161,10 +6295,10 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="110" t="s">
+      <c r="A251" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B251" s="110" t="s">
+      <c r="B251" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C251" s="65">
@@ -6175,10 +6309,10 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="110" t="s">
+      <c r="A252" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B252" s="110" t="s">
+      <c r="B252" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C252" s="63">
@@ -6189,10 +6323,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="110" t="s">
+      <c r="A253" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B253" s="110" t="s">
+      <c r="B253" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C253" s="65">
@@ -6203,10 +6337,10 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="110" t="s">
+      <c r="A254" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B254" s="110" t="s">
+      <c r="B254" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C254" s="63">
@@ -6217,10 +6351,10 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="110" t="s">
+      <c r="A255" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B255" s="110" t="s">
+      <c r="B255" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C255" s="65">
@@ -6231,10 +6365,10 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="110" t="s">
+      <c r="A256" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B256" s="110" t="s">
+      <c r="B256" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C256" s="63">
@@ -6245,10 +6379,10 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="110" t="s">
+      <c r="A257" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B257" s="110" t="s">
+      <c r="B257" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C257" s="73">
@@ -6259,10 +6393,10 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="111" t="s">
+      <c r="A258" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="B258" s="111" t="s">
+      <c r="B258" s="105" t="s">
         <v>189</v>
       </c>
       <c r="C258" s="75">
@@ -6315,10 +6449,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="113" t="s">
+      <c r="A262" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="B262" s="113" t="s">
+      <c r="B262" s="107" t="s">
         <v>197</v>
       </c>
       <c r="C262" s="55">
@@ -6329,8 +6463,8 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="115"/>
-      <c r="B263" s="115"/>
+      <c r="A263" s="112"/>
+      <c r="B263" s="112"/>
       <c r="C263" s="57">
         <v>5</v>
       </c>
@@ -6339,8 +6473,8 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="115"/>
-      <c r="B264" s="115"/>
+      <c r="A264" s="112"/>
+      <c r="B264" s="112"/>
       <c r="C264" s="59">
         <v>6</v>
       </c>
@@ -6349,8 +6483,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="115"/>
-      <c r="B265" s="115"/>
+      <c r="A265" s="112"/>
+      <c r="B265" s="112"/>
       <c r="C265" s="57">
         <v>7</v>
       </c>
@@ -6359,8 +6493,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="115"/>
-      <c r="B266" s="115"/>
+      <c r="A266" s="112"/>
+      <c r="B266" s="112"/>
       <c r="C266" s="59">
         <v>8</v>
       </c>
@@ -6369,8 +6503,8 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="115"/>
-      <c r="B267" s="115"/>
+      <c r="A267" s="112"/>
+      <c r="B267" s="112"/>
       <c r="C267" s="57">
         <v>88</v>
       </c>
@@ -6379,8 +6513,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="116"/>
-      <c r="B268" s="116"/>
+      <c r="A268" s="103"/>
+      <c r="B268" s="103"/>
       <c r="C268" s="59">
         <v>99</v>
       </c>
@@ -6402,80 +6536,625 @@
         <v>335</v>
       </c>
     </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="B270" s="100" t="s">
+        <v>677</v>
+      </c>
+      <c r="C270" s="81" t="s">
+        <v>678</v>
+      </c>
+      <c r="D270" s="82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="B271" s="100" t="s">
+        <v>680</v>
+      </c>
+      <c r="C271" s="81" t="s">
+        <v>678</v>
+      </c>
+      <c r="D271" s="82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="104" t="s">
+        <v>651</v>
+      </c>
+      <c r="B272" s="109" t="s">
+        <v>673</v>
+      </c>
+      <c r="C272" s="99">
+        <v>1</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="111"/>
+      <c r="B273" s="110"/>
+      <c r="C273" s="75">
+        <v>0</v>
+      </c>
+      <c r="D273" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="104" t="s">
+        <v>652</v>
+      </c>
+      <c r="B274" s="109" t="s">
+        <v>681</v>
+      </c>
+      <c r="C274" s="99">
+        <v>1</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="111"/>
+      <c r="B275" s="110"/>
+      <c r="C275" s="75">
+        <v>0</v>
+      </c>
+      <c r="D275" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="104" t="s">
+        <v>653</v>
+      </c>
+      <c r="B276" s="109" t="s">
+        <v>682</v>
+      </c>
+      <c r="C276" s="99">
+        <v>1</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="111"/>
+      <c r="B277" s="110"/>
+      <c r="C277" s="75">
+        <v>0</v>
+      </c>
+      <c r="D277" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="104" t="s">
+        <v>654</v>
+      </c>
+      <c r="B278" s="109" t="s">
+        <v>683</v>
+      </c>
+      <c r="C278" s="99">
+        <v>1</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="111"/>
+      <c r="B279" s="110"/>
+      <c r="C279" s="75">
+        <v>0</v>
+      </c>
+      <c r="D279" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="104" t="s">
+        <v>655</v>
+      </c>
+      <c r="B280" s="109" t="s">
+        <v>684</v>
+      </c>
+      <c r="C280" s="99">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="111"/>
+      <c r="B281" s="110"/>
+      <c r="C281" s="75">
+        <v>0</v>
+      </c>
+      <c r="D281" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="104" t="s">
+        <v>656</v>
+      </c>
+      <c r="B282" s="109" t="s">
+        <v>685</v>
+      </c>
+      <c r="C282" s="99">
+        <v>1</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="111"/>
+      <c r="B283" s="110"/>
+      <c r="C283" s="75">
+        <v>0</v>
+      </c>
+      <c r="D283" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="104" t="s">
+        <v>657</v>
+      </c>
+      <c r="B284" s="109" t="s">
+        <v>686</v>
+      </c>
+      <c r="C284" s="99">
+        <v>1</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="111"/>
+      <c r="B285" s="110"/>
+      <c r="C285" s="75">
+        <v>0</v>
+      </c>
+      <c r="D285" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="104" t="s">
+        <v>658</v>
+      </c>
+      <c r="B286" s="109" t="s">
+        <v>687</v>
+      </c>
+      <c r="C286" s="99">
+        <v>1</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="111"/>
+      <c r="B287" s="110"/>
+      <c r="C287" s="75">
+        <v>0</v>
+      </c>
+      <c r="D287" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="104" t="s">
+        <v>659</v>
+      </c>
+      <c r="B288" s="109" t="s">
+        <v>688</v>
+      </c>
+      <c r="C288" s="99">
+        <v>1</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="111"/>
+      <c r="B289" s="110"/>
+      <c r="C289" s="75">
+        <v>0</v>
+      </c>
+      <c r="D289" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="104" t="s">
+        <v>660</v>
+      </c>
+      <c r="B290" s="109" t="s">
+        <v>689</v>
+      </c>
+      <c r="C290" s="99">
+        <v>1</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="111"/>
+      <c r="B291" s="110"/>
+      <c r="C291" s="75">
+        <v>0</v>
+      </c>
+      <c r="D291" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="104" t="s">
+        <v>661</v>
+      </c>
+      <c r="B292" s="109" t="s">
+        <v>690</v>
+      </c>
+      <c r="C292" s="99">
+        <v>1</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="111"/>
+      <c r="B293" s="110"/>
+      <c r="C293" s="75">
+        <v>0</v>
+      </c>
+      <c r="D293" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="104" t="s">
+        <v>662</v>
+      </c>
+      <c r="B294" s="109" t="s">
+        <v>691</v>
+      </c>
+      <c r="C294" s="99">
+        <v>1</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="111"/>
+      <c r="B295" s="110"/>
+      <c r="C295" s="75">
+        <v>0</v>
+      </c>
+      <c r="D295" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="104" t="s">
+        <v>663</v>
+      </c>
+      <c r="B296" s="109" t="s">
+        <v>692</v>
+      </c>
+      <c r="C296" s="99">
+        <v>1</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="111"/>
+      <c r="B297" s="110"/>
+      <c r="C297" s="75">
+        <v>0</v>
+      </c>
+      <c r="D297" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="104" t="s">
+        <v>664</v>
+      </c>
+      <c r="B298" s="109" t="s">
+        <v>693</v>
+      </c>
+      <c r="C298" s="99">
+        <v>1</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="111"/>
+      <c r="B299" s="110"/>
+      <c r="C299" s="75">
+        <v>0</v>
+      </c>
+      <c r="D299" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="104" t="s">
+        <v>665</v>
+      </c>
+      <c r="B300" s="109" t="s">
+        <v>694</v>
+      </c>
+      <c r="C300" s="99">
+        <v>1</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="111"/>
+      <c r="B301" s="110"/>
+      <c r="C301" s="75">
+        <v>0</v>
+      </c>
+      <c r="D301" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="104" t="s">
+        <v>666</v>
+      </c>
+      <c r="B302" s="109" t="s">
+        <v>695</v>
+      </c>
+      <c r="C302" s="99">
+        <v>1</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="111"/>
+      <c r="B303" s="110"/>
+      <c r="C303" s="75">
+        <v>0</v>
+      </c>
+      <c r="D303" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="104" t="s">
+        <v>667</v>
+      </c>
+      <c r="B304" s="109" t="s">
+        <v>696</v>
+      </c>
+      <c r="C304" s="99">
+        <v>1</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="111"/>
+      <c r="B305" s="110"/>
+      <c r="C305" s="75">
+        <v>0</v>
+      </c>
+      <c r="D305" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="104" t="s">
+        <v>668</v>
+      </c>
+      <c r="B306" s="109" t="s">
+        <v>697</v>
+      </c>
+      <c r="C306" s="99">
+        <v>1</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="111"/>
+      <c r="B307" s="110"/>
+      <c r="C307" s="75">
+        <v>0</v>
+      </c>
+      <c r="D307" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="104" t="s">
+        <v>669</v>
+      </c>
+      <c r="B308" s="109" t="s">
+        <v>698</v>
+      </c>
+      <c r="C308" s="99">
+        <v>1</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="111"/>
+      <c r="B309" s="110"/>
+      <c r="C309" s="75">
+        <v>0</v>
+      </c>
+      <c r="D309" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="104" t="s">
+        <v>670</v>
+      </c>
+      <c r="B310" s="109" t="s">
+        <v>699</v>
+      </c>
+      <c r="C310" s="99">
+        <v>1</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="111"/>
+      <c r="B311" s="110"/>
+      <c r="C311" s="75">
+        <v>0</v>
+      </c>
+      <c r="D311" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="104" t="s">
+        <v>671</v>
+      </c>
+      <c r="B312" s="109" t="s">
+        <v>700</v>
+      </c>
+      <c r="C312" s="99">
+        <v>1</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="111"/>
+      <c r="B313" s="110"/>
+      <c r="C313" s="75">
+        <v>0</v>
+      </c>
+      <c r="D313" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="104" t="s">
+        <v>672</v>
+      </c>
+      <c r="B314" s="109" t="s">
+        <v>701</v>
+      </c>
+      <c r="C314" s="99">
+        <v>1</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="111"/>
+      <c r="B315" s="110"/>
+      <c r="C315" s="75">
+        <v>0</v>
+      </c>
+      <c r="D315" s="76" t="s">
+        <v>675</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="142">
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="B306:B307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="B308:B309"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B248:B258"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="A272:A273"/>
     <mergeCell ref="A262:A268"/>
     <mergeCell ref="B262:B268"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A199:A238"/>
-    <mergeCell ref="B199:B238"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B123:B124"/>
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="B127:B128"/>
     <mergeCell ref="B129:B135"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A129:A135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B123:B124"/>
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="A239:A242"/>
     <mergeCell ref="A243:A247"/>
@@ -6491,21 +7170,76 @@
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="B248:B258"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A129:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A199:A238"/>
+    <mergeCell ref="B199:B238"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -6520,7 +7254,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D612"/>
+  <dimension ref="A1:D613"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -6618,10 +7352,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="118" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="119" t="s">
         <v>346</v>
       </c>
       <c r="C7" s="12">
@@ -6632,8 +7366,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="122"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="13">
         <v>2</v>
       </c>
@@ -6642,8 +7376,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="122"/>
-      <c r="B9" s="110"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="14">
         <v>3</v>
       </c>
@@ -6652,8 +7386,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="122"/>
-      <c r="B10" s="110"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="13">
         <v>4</v>
       </c>
@@ -6662,8 +7396,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="122"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="14">
         <v>5</v>
       </c>
@@ -6672,8 +7406,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="110"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -6682,8 +7416,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="122"/>
-      <c r="B13" s="110"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="14">
         <v>7</v>
       </c>
@@ -6692,8 +7426,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="122"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="13">
         <v>8</v>
       </c>
@@ -6702,8 +7436,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="14">
         <v>9</v>
       </c>
@@ -6712,8 +7446,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="124"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="15">
         <v>10</v>
       </c>
@@ -6722,10 +7456,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="114" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="113" t="s">
         <v>357</v>
       </c>
       <c r="C17" s="14">
@@ -6736,8 +7470,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="122"/>
-      <c r="B18" s="110"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="13">
         <v>1</v>
       </c>
@@ -6746,8 +7480,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="122"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="14">
         <v>99</v>
       </c>
@@ -6756,10 +7490,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="120" t="s">
         <v>359</v>
       </c>
       <c r="C20" s="18">
@@ -6770,8 +7504,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="124"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="19">
         <v>2</v>
       </c>
@@ -6780,10 +7514,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="114" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="113" t="s">
         <v>363</v>
       </c>
       <c r="C22" s="13">
@@ -6794,8 +7528,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="122"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="14">
         <v>2</v>
       </c>
@@ -6804,8 +7538,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="122"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="13">
         <v>3</v>
       </c>
@@ -6814,8 +7548,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="122"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="20">
         <v>4</v>
       </c>
@@ -6824,8 +7558,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="110"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="10">
         <v>5</v>
       </c>
@@ -6834,8 +7568,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="122"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="20">
         <v>8</v>
       </c>
@@ -6858,10 +7592,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="114" t="s">
         <v>372</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="113" t="s">
         <v>373</v>
       </c>
       <c r="C29" s="23">
@@ -6872,8 +7606,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="122"/>
-      <c r="B30" s="110"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="13">
         <v>2</v>
       </c>
@@ -6882,8 +7616,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="122"/>
-      <c r="B31" s="110"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="14">
         <v>3</v>
       </c>
@@ -6892,8 +7626,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="122"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="13">
         <v>4</v>
       </c>
@@ -6902,8 +7636,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="122"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="14">
         <v>5</v>
       </c>
@@ -6912,8 +7646,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="122"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="13">
         <v>6</v>
       </c>
@@ -6922,8 +7656,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="122"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="14">
         <v>7</v>
       </c>
@@ -6932,8 +7666,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="122"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="13">
         <v>8</v>
       </c>
@@ -6942,8 +7676,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="122"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="14">
         <v>88</v>
       </c>
@@ -6952,8 +7686,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="122"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="13">
         <v>99</v>
       </c>
@@ -6962,10 +7696,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="123" t="s">
+      <c r="A39" s="116" t="s">
         <v>382</v>
       </c>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="120" t="s">
         <v>383</v>
       </c>
       <c r="C39" s="24">
@@ -6976,8 +7710,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="122"/>
-      <c r="B40" s="110"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="13">
         <v>1</v>
       </c>
@@ -6986,8 +7720,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="122"/>
-      <c r="B41" s="110"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="101"/>
       <c r="C41" s="14">
         <v>2</v>
       </c>
@@ -6996,8 +7730,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="122"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="13">
         <v>3</v>
       </c>
@@ -7006,8 +7740,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="122"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="14">
         <v>4</v>
       </c>
@@ -7016,8 +7750,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="122"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="13">
         <v>5</v>
       </c>
@@ -7026,8 +7760,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="122"/>
-      <c r="B45" s="110"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="14">
         <v>6</v>
       </c>
@@ -7036,8 +7770,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="122"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="13">
         <v>7</v>
       </c>
@@ -7046,8 +7780,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="124"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="25">
         <v>8</v>
       </c>
@@ -7056,10 +7790,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="114" t="s">
         <v>393</v>
       </c>
-      <c r="B48" s="119" t="s">
+      <c r="B48" s="113" t="s">
         <v>394</v>
       </c>
       <c r="C48" s="10">
@@ -7070,8 +7804,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="122"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="20">
         <v>1</v>
       </c>
@@ -7080,8 +7814,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="122"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="10">
         <v>2</v>
       </c>
@@ -7090,8 +7824,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="122"/>
-      <c r="B51" s="110"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="23">
         <v>88</v>
       </c>
@@ -7100,8 +7834,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="122"/>
-      <c r="B52" s="110"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="13">
         <v>99</v>
       </c>
@@ -7110,10 +7844,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="123" t="s">
+      <c r="A53" s="116" t="s">
         <v>398</v>
       </c>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="120" t="s">
         <v>399</v>
       </c>
       <c r="C53" s="24">
@@ -7124,8 +7858,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="122"/>
-      <c r="B54" s="110"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="101"/>
       <c r="C54" s="13">
         <v>2</v>
       </c>
@@ -7134,8 +7868,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="122"/>
-      <c r="B55" s="110"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="101"/>
       <c r="C55" s="14">
         <v>3</v>
       </c>
@@ -7144,8 +7878,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="122"/>
-      <c r="B56" s="110"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="101"/>
       <c r="C56" s="13">
         <v>4</v>
       </c>
@@ -7154,8 +7888,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="122"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="101"/>
       <c r="C57" s="14">
         <v>5</v>
       </c>
@@ -7164,8 +7898,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="122"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="101"/>
       <c r="C58" s="13">
         <v>6</v>
       </c>
@@ -7174,8 +7908,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="122"/>
-      <c r="B59" s="110"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="101"/>
       <c r="C59" s="14">
         <v>7</v>
       </c>
@@ -7184,8 +7918,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="122"/>
-      <c r="B60" s="110"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="13">
         <v>8</v>
       </c>
@@ -7194,8 +7928,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="122"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="115"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="14">
         <v>9</v>
       </c>
@@ -7204,8 +7938,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="122"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="101"/>
       <c r="C62" s="13">
         <v>10</v>
       </c>
@@ -7214,8 +7948,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="122"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="101"/>
       <c r="C63" s="14">
         <v>11</v>
       </c>
@@ -7224,8 +7958,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="122"/>
-      <c r="B64" s="110"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="101"/>
       <c r="C64" s="13">
         <v>12</v>
       </c>
@@ -7234,8 +7968,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="122"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="101"/>
       <c r="C65" s="14">
         <v>13</v>
       </c>
@@ -7244,8 +7978,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="122"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="101"/>
       <c r="C66" s="13">
         <v>14</v>
       </c>
@@ -7254,8 +7988,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="122"/>
-      <c r="B67" s="110"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="14">
         <v>15</v>
       </c>
@@ -7264,8 +7998,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="122"/>
-      <c r="B68" s="110"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="101"/>
       <c r="C68" s="13">
         <v>16</v>
       </c>
@@ -7274,8 +8008,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="122"/>
-      <c r="B69" s="110"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="101"/>
       <c r="C69" s="20">
         <v>17</v>
       </c>
@@ -7284,8 +8018,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="122"/>
-      <c r="B70" s="110"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="101"/>
       <c r="C70" s="10">
         <v>18</v>
       </c>
@@ -7294,8 +8028,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="122"/>
-      <c r="B71" s="110"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="101"/>
       <c r="C71" s="20">
         <v>19</v>
       </c>
@@ -7304,8 +8038,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="122"/>
-      <c r="B72" s="110"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="101"/>
       <c r="C72" s="10">
         <v>20</v>
       </c>
@@ -7314,8 +8048,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="122"/>
-      <c r="B73" s="110"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="101"/>
       <c r="C73" s="23">
         <v>21</v>
       </c>
@@ -7324,8 +8058,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="122"/>
-      <c r="B74" s="110"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="101"/>
       <c r="C74" s="13">
         <v>22</v>
       </c>
@@ -7334,8 +8068,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="122"/>
-      <c r="B75" s="110"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="101"/>
       <c r="C75" s="14">
         <v>23</v>
       </c>
@@ -7344,8 +8078,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="122"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="101"/>
       <c r="C76" s="13">
         <v>24</v>
       </c>
@@ -7354,8 +8088,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="122"/>
-      <c r="B77" s="110"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="101"/>
       <c r="C77" s="14">
         <v>25</v>
       </c>
@@ -7364,8 +8098,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="122"/>
-      <c r="B78" s="110"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="101"/>
       <c r="C78" s="13">
         <v>26</v>
       </c>
@@ -7374,8 +8108,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="122"/>
-      <c r="B79" s="110"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="101"/>
       <c r="C79" s="14">
         <v>27</v>
       </c>
@@ -7384,8 +8118,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="122"/>
-      <c r="B80" s="110"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="101"/>
       <c r="C80" s="13">
         <v>28</v>
       </c>
@@ -7394,8 +8128,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="124"/>
-      <c r="B81" s="111"/>
+      <c r="A81" s="117"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="19">
         <v>88</v>
       </c>
@@ -7404,10 +8138,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="121" t="s">
+      <c r="A82" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="B82" s="119" t="s">
+      <c r="B82" s="113" t="s">
         <v>430</v>
       </c>
       <c r="C82" s="13">
@@ -7418,8 +8152,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="122"/>
-      <c r="B83" s="110"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="101"/>
       <c r="C83" s="14">
         <v>2</v>
       </c>
@@ -7428,8 +8162,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="122"/>
-      <c r="B84" s="110"/>
+      <c r="A84" s="115"/>
+      <c r="B84" s="101"/>
       <c r="C84" s="13">
         <v>3</v>
       </c>
@@ -7438,8 +8172,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="122"/>
-      <c r="B85" s="110"/>
+      <c r="A85" s="115"/>
+      <c r="B85" s="101"/>
       <c r="C85" s="14">
         <v>4</v>
       </c>
@@ -7448,8 +8182,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="122"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="101"/>
       <c r="C86" s="13">
         <v>88</v>
       </c>
@@ -7458,8 +8192,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="122"/>
-      <c r="B87" s="110"/>
+      <c r="A87" s="115"/>
+      <c r="B87" s="101"/>
       <c r="C87" s="14">
         <v>99</v>
       </c>
@@ -7468,10 +8202,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="123" t="s">
+      <c r="A88" s="116" t="s">
         <v>435</v>
       </c>
-      <c r="B88" s="118" t="s">
+      <c r="B88" s="120" t="s">
         <v>436</v>
       </c>
       <c r="C88" s="18">
@@ -7482,8 +8216,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="124"/>
-      <c r="B89" s="111"/>
+      <c r="A89" s="117"/>
+      <c r="B89" s="105"/>
       <c r="C89" s="19">
         <v>9999</v>
       </c>
@@ -7492,10 +8226,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="121" t="s">
+      <c r="A90" s="114" t="s">
         <v>437</v>
       </c>
-      <c r="B90" s="119" t="s">
+      <c r="B90" s="113" t="s">
         <v>438</v>
       </c>
       <c r="C90" s="13">
@@ -7506,8 +8240,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="122"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="115"/>
+      <c r="B91" s="101"/>
       <c r="C91" s="20">
         <v>2</v>
       </c>
@@ -7516,8 +8250,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="122"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="115"/>
+      <c r="B92" s="101"/>
       <c r="C92" s="10">
         <v>3</v>
       </c>
@@ -7526,8 +8260,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="122"/>
-      <c r="B93" s="110"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="101"/>
       <c r="C93" s="20">
         <v>4</v>
       </c>
@@ -7536,8 +8270,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="122"/>
-      <c r="B94" s="110"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="101"/>
       <c r="C94" s="10">
         <v>5</v>
       </c>
@@ -7546,8 +8280,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="122"/>
-      <c r="B95" s="110"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="101"/>
       <c r="C95" s="23">
         <v>6</v>
       </c>
@@ -7556,8 +8290,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="122"/>
-      <c r="B96" s="110"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="101"/>
       <c r="C96" s="13">
         <v>7</v>
       </c>
@@ -7566,8 +8300,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="122"/>
-      <c r="B97" s="110"/>
+      <c r="A97" s="115"/>
+      <c r="B97" s="101"/>
       <c r="C97" s="14">
         <v>8</v>
       </c>
@@ -7576,8 +8310,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="122"/>
-      <c r="B98" s="110"/>
+      <c r="A98" s="115"/>
+      <c r="B98" s="101"/>
       <c r="C98" s="13">
         <v>9</v>
       </c>
@@ -7586,8 +8320,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="122"/>
-      <c r="B99" s="110"/>
+      <c r="A99" s="115"/>
+      <c r="B99" s="101"/>
       <c r="C99" s="14">
         <v>10</v>
       </c>
@@ -7596,8 +8330,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="122"/>
-      <c r="B100" s="110"/>
+      <c r="A100" s="115"/>
+      <c r="B100" s="101"/>
       <c r="C100" s="13">
         <v>11</v>
       </c>
@@ -7606,8 +8340,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="122"/>
-      <c r="B101" s="110"/>
+      <c r="A101" s="115"/>
+      <c r="B101" s="101"/>
       <c r="C101" s="14">
         <v>12</v>
       </c>
@@ -7616,8 +8350,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="122"/>
-      <c r="B102" s="110"/>
+      <c r="A102" s="115"/>
+      <c r="B102" s="101"/>
       <c r="C102" s="13">
         <v>13</v>
       </c>
@@ -7626,8 +8360,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="122"/>
-      <c r="B103" s="110"/>
+      <c r="A103" s="115"/>
+      <c r="B103" s="101"/>
       <c r="C103" s="14">
         <v>14</v>
       </c>
@@ -7636,8 +8370,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="122"/>
-      <c r="B104" s="110"/>
+      <c r="A104" s="115"/>
+      <c r="B104" s="101"/>
       <c r="C104" s="13">
         <v>15</v>
       </c>
@@ -7646,8 +8380,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="122"/>
-      <c r="B105" s="110"/>
+      <c r="A105" s="115"/>
+      <c r="B105" s="101"/>
       <c r="C105" s="14">
         <v>16</v>
       </c>
@@ -7656,8 +8390,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="122"/>
-      <c r="B106" s="110"/>
+      <c r="A106" s="115"/>
+      <c r="B106" s="101"/>
       <c r="C106" s="13">
         <v>17</v>
       </c>
@@ -7666,8 +8400,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="122"/>
-      <c r="B107" s="110"/>
+      <c r="A107" s="115"/>
+      <c r="B107" s="101"/>
       <c r="C107" s="14">
         <v>18</v>
       </c>
@@ -7676,8 +8410,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="122"/>
-      <c r="B108" s="110"/>
+      <c r="A108" s="115"/>
+      <c r="B108" s="101"/>
       <c r="C108" s="13">
         <v>19</v>
       </c>
@@ -7686,8 +8420,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="122"/>
-      <c r="B109" s="110"/>
+      <c r="A109" s="115"/>
+      <c r="B109" s="101"/>
       <c r="C109" s="14">
         <v>20</v>
       </c>
@@ -7696,8 +8430,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="122"/>
-      <c r="B110" s="110"/>
+      <c r="A110" s="115"/>
+      <c r="B110" s="101"/>
       <c r="C110" s="13">
         <v>21</v>
       </c>
@@ -7706,8 +8440,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="122"/>
-      <c r="B111" s="110"/>
+      <c r="A111" s="115"/>
+      <c r="B111" s="101"/>
       <c r="C111" s="14">
         <v>22</v>
       </c>
@@ -7716,8 +8450,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="122"/>
-      <c r="B112" s="110"/>
+      <c r="A112" s="115"/>
+      <c r="B112" s="101"/>
       <c r="C112" s="13">
         <v>23</v>
       </c>
@@ -7726,8 +8460,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="122"/>
-      <c r="B113" s="110"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="101"/>
       <c r="C113" s="20">
         <v>24</v>
       </c>
@@ -7736,8 +8470,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="122"/>
-      <c r="B114" s="110"/>
+      <c r="A114" s="115"/>
+      <c r="B114" s="101"/>
       <c r="C114" s="10">
         <v>25</v>
       </c>
@@ -7746,8 +8480,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="122"/>
-      <c r="B115" s="110"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="101"/>
       <c r="C115" s="20">
         <v>26</v>
       </c>
@@ -7756,8 +8490,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="122"/>
-      <c r="B116" s="110"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="101"/>
       <c r="C116" s="10">
         <v>27</v>
       </c>
@@ -7766,8 +8500,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="122"/>
-      <c r="B117" s="110"/>
+      <c r="A117" s="115"/>
+      <c r="B117" s="101"/>
       <c r="C117" s="23">
         <v>28</v>
       </c>
@@ -7776,8 +8510,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="122"/>
-      <c r="B118" s="110"/>
+      <c r="A118" s="115"/>
+      <c r="B118" s="101"/>
       <c r="C118" s="13">
         <v>88</v>
       </c>
@@ -7786,8 +8520,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="122"/>
-      <c r="B119" s="110"/>
+      <c r="A119" s="115"/>
+      <c r="B119" s="101"/>
       <c r="C119" s="14">
         <v>99</v>
       </c>
@@ -7796,10 +8530,10 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="123" t="s">
+      <c r="A120" s="116" t="s">
         <v>440</v>
       </c>
-      <c r="B120" s="118" t="s">
+      <c r="B120" s="120" t="s">
         <v>441</v>
       </c>
       <c r="C120" s="18">
@@ -7810,8 +8544,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="122"/>
-      <c r="B121" s="110"/>
+      <c r="A121" s="115"/>
+      <c r="B121" s="101"/>
       <c r="C121" s="14">
         <v>2</v>
       </c>
@@ -7820,8 +8554,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="122"/>
-      <c r="B122" s="110"/>
+      <c r="A122" s="115"/>
+      <c r="B122" s="101"/>
       <c r="C122" s="13">
         <v>3</v>
       </c>
@@ -7830,8 +8564,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="122"/>
-      <c r="B123" s="110"/>
+      <c r="A123" s="115"/>
+      <c r="B123" s="101"/>
       <c r="C123" s="14">
         <v>4</v>
       </c>
@@ -7840,8 +8574,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="122"/>
-      <c r="B124" s="110"/>
+      <c r="A124" s="115"/>
+      <c r="B124" s="101"/>
       <c r="C124" s="13">
         <v>5</v>
       </c>
@@ -7850,8 +8584,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="122"/>
-      <c r="B125" s="110"/>
+      <c r="A125" s="115"/>
+      <c r="B125" s="101"/>
       <c r="C125" s="14">
         <v>6</v>
       </c>
@@ -7860,8 +8594,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="122"/>
-      <c r="B126" s="110"/>
+      <c r="A126" s="115"/>
+      <c r="B126" s="101"/>
       <c r="C126" s="13">
         <v>7</v>
       </c>
@@ -7870,8 +8604,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="122"/>
-      <c r="B127" s="110"/>
+      <c r="A127" s="115"/>
+      <c r="B127" s="101"/>
       <c r="C127" s="14">
         <v>8</v>
       </c>
@@ -7880,8 +8614,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="122"/>
-      <c r="B128" s="110"/>
+      <c r="A128" s="115"/>
+      <c r="B128" s="101"/>
       <c r="C128" s="13">
         <v>9</v>
       </c>
@@ -7890,8 +8624,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="122"/>
-      <c r="B129" s="110"/>
+      <c r="A129" s="115"/>
+      <c r="B129" s="101"/>
       <c r="C129" s="14">
         <v>88</v>
       </c>
@@ -7900,8 +8634,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="124"/>
-      <c r="B130" s="111"/>
+      <c r="A130" s="117"/>
+      <c r="B130" s="105"/>
       <c r="C130" s="15">
         <v>99</v>
       </c>
@@ -7910,10 +8644,10 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="121" t="s">
+      <c r="A131" s="114" t="s">
         <v>451</v>
       </c>
-      <c r="B131" s="119" t="s">
+      <c r="B131" s="113" t="s">
         <v>452</v>
       </c>
       <c r="C131" s="14">
@@ -7924,8 +8658,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="122"/>
-      <c r="B132" s="110"/>
+      <c r="A132" s="115"/>
+      <c r="B132" s="101"/>
       <c r="C132" s="13">
         <v>999</v>
       </c>
@@ -7934,10 +8668,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="123" t="s">
+      <c r="A133" s="116" t="s">
         <v>453</v>
       </c>
-      <c r="B133" s="118" t="s">
+      <c r="B133" s="120" t="s">
         <v>454</v>
       </c>
       <c r="C133" s="24">
@@ -7948,8 +8682,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="122"/>
-      <c r="B134" s="110"/>
+      <c r="A134" s="115"/>
+      <c r="B134" s="101"/>
       <c r="C134" s="13">
         <v>1</v>
       </c>
@@ -7958,8 +8692,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="122"/>
-      <c r="B135" s="110"/>
+      <c r="A135" s="115"/>
+      <c r="B135" s="101"/>
       <c r="C135" s="20">
         <v>2</v>
       </c>
@@ -7968,8 +8702,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="122"/>
-      <c r="B136" s="110"/>
+      <c r="A136" s="115"/>
+      <c r="B136" s="101"/>
       <c r="C136" s="10">
         <v>3</v>
       </c>
@@ -7978,8 +8712,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="122"/>
-      <c r="B137" s="110"/>
+      <c r="A137" s="115"/>
+      <c r="B137" s="101"/>
       <c r="C137" s="20">
         <v>4</v>
       </c>
@@ -7988,8 +8722,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="122"/>
-      <c r="B138" s="110"/>
+      <c r="A138" s="115"/>
+      <c r="B138" s="101"/>
       <c r="C138" s="10">
         <v>5</v>
       </c>
@@ -7998,8 +8732,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="124"/>
-      <c r="B139" s="111"/>
+      <c r="A139" s="117"/>
+      <c r="B139" s="105"/>
       <c r="C139" s="26">
         <v>88</v>
       </c>
@@ -8008,10 +8742,10 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="121" t="s">
+      <c r="A140" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="B140" s="119" t="s">
+      <c r="B140" s="113" t="s">
         <v>462</v>
       </c>
       <c r="C140" s="13">
@@ -8022,8 +8756,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="122"/>
-      <c r="B141" s="110"/>
+      <c r="A141" s="115"/>
+      <c r="B141" s="101"/>
       <c r="C141" s="14">
         <v>1</v>
       </c>
@@ -8032,8 +8766,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="122"/>
-      <c r="B142" s="110"/>
+      <c r="A142" s="115"/>
+      <c r="B142" s="101"/>
       <c r="C142" s="13">
         <v>2</v>
       </c>
@@ -8042,8 +8776,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="122"/>
-      <c r="B143" s="110"/>
+      <c r="A143" s="115"/>
+      <c r="B143" s="101"/>
       <c r="C143" s="14">
         <v>88</v>
       </c>
@@ -8066,10 +8800,10 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="110" t="s">
+      <c r="A145" s="101" t="s">
         <v>471</v>
       </c>
-      <c r="B145" s="110" t="s">
+      <c r="B145" s="101" t="s">
         <v>472</v>
       </c>
       <c r="C145" s="14">
@@ -8080,8 +8814,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="115"/>
-      <c r="B146" s="115"/>
+      <c r="A146" s="112"/>
+      <c r="B146" s="112"/>
       <c r="C146" s="13">
         <v>2</v>
       </c>
@@ -8090,8 +8824,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="115"/>
-      <c r="B147" s="115"/>
+      <c r="A147" s="112"/>
+      <c r="B147" s="112"/>
       <c r="C147" s="14">
         <v>3</v>
       </c>
@@ -8100,8 +8834,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="115"/>
-      <c r="B148" s="115"/>
+      <c r="A148" s="112"/>
+      <c r="B148" s="112"/>
       <c r="C148" s="13">
         <v>4</v>
       </c>
@@ -8110,8 +8844,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="115"/>
-      <c r="B149" s="115"/>
+      <c r="A149" s="112"/>
+      <c r="B149" s="112"/>
       <c r="C149" s="14">
         <v>5</v>
       </c>
@@ -8120,8 +8854,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="115"/>
-      <c r="B150" s="115"/>
+      <c r="A150" s="112"/>
+      <c r="B150" s="112"/>
       <c r="C150" s="13">
         <v>6</v>
       </c>
@@ -8130,8 +8864,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="115"/>
-      <c r="B151" s="115"/>
+      <c r="A151" s="112"/>
+      <c r="B151" s="112"/>
       <c r="C151" s="14">
         <v>7</v>
       </c>
@@ -8140,8 +8874,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="115"/>
-      <c r="B152" s="115"/>
+      <c r="A152" s="112"/>
+      <c r="B152" s="112"/>
       <c r="C152" s="13">
         <v>8</v>
       </c>
@@ -8150,8 +8884,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="115"/>
-      <c r="B153" s="115"/>
+      <c r="A153" s="112"/>
+      <c r="B153" s="112"/>
       <c r="C153" s="14">
         <v>9</v>
       </c>
@@ -8160,8 +8894,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="115"/>
-      <c r="B154" s="115"/>
+      <c r="A154" s="112"/>
+      <c r="B154" s="112"/>
       <c r="C154" s="13">
         <v>10</v>
       </c>
@@ -8170,8 +8904,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="115"/>
-      <c r="B155" s="115"/>
+      <c r="A155" s="112"/>
+      <c r="B155" s="112"/>
       <c r="C155" s="14">
         <v>11</v>
       </c>
@@ -8180,8 +8914,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="115"/>
-      <c r="B156" s="115"/>
+      <c r="A156" s="112"/>
+      <c r="B156" s="112"/>
       <c r="C156" s="13">
         <v>12</v>
       </c>
@@ -8190,8 +8924,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="115"/>
-      <c r="B157" s="115"/>
+      <c r="A157" s="112"/>
+      <c r="B157" s="112"/>
       <c r="C157" s="20">
         <v>13</v>
       </c>
@@ -8200,8 +8934,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="115"/>
-      <c r="B158" s="115"/>
+      <c r="A158" s="112"/>
+      <c r="B158" s="112"/>
       <c r="C158" s="10">
         <v>14</v>
       </c>
@@ -8210,8 +8944,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="115"/>
-      <c r="B159" s="115"/>
+      <c r="A159" s="112"/>
+      <c r="B159" s="112"/>
       <c r="C159" s="20">
         <v>15</v>
       </c>
@@ -8220,8 +8954,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="115"/>
-      <c r="B160" s="115"/>
+      <c r="A160" s="112"/>
+      <c r="B160" s="112"/>
       <c r="C160" s="10">
         <v>16</v>
       </c>
@@ -8230,8 +8964,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="115"/>
-      <c r="B161" s="115"/>
+      <c r="A161" s="112"/>
+      <c r="B161" s="112"/>
       <c r="C161" s="23">
         <v>17</v>
       </c>
@@ -8240,8 +8974,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="115"/>
-      <c r="B162" s="115"/>
+      <c r="A162" s="112"/>
+      <c r="B162" s="112"/>
       <c r="C162" s="13">
         <v>18</v>
       </c>
@@ -8250,8 +8984,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="115"/>
-      <c r="B163" s="115"/>
+      <c r="A163" s="112"/>
+      <c r="B163" s="112"/>
       <c r="C163" s="14">
         <v>19</v>
       </c>
@@ -8260,8 +8994,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="115"/>
-      <c r="B164" s="115"/>
+      <c r="A164" s="112"/>
+      <c r="B164" s="112"/>
       <c r="C164" s="13">
         <v>20</v>
       </c>
@@ -8270,8 +9004,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="115"/>
-      <c r="B165" s="115"/>
+      <c r="A165" s="112"/>
+      <c r="B165" s="112"/>
       <c r="C165" s="14">
         <v>21</v>
       </c>
@@ -8280,8 +9014,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="115"/>
-      <c r="B166" s="115"/>
+      <c r="A166" s="112"/>
+      <c r="B166" s="112"/>
       <c r="C166" s="13">
         <v>22</v>
       </c>
@@ -8290,8 +9024,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="115"/>
-      <c r="B167" s="115"/>
+      <c r="A167" s="112"/>
+      <c r="B167" s="112"/>
       <c r="C167" s="14">
         <v>23</v>
       </c>
@@ -8300,8 +9034,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="115"/>
-      <c r="B168" s="115"/>
+      <c r="A168" s="112"/>
+      <c r="B168" s="112"/>
       <c r="C168" s="13">
         <v>24</v>
       </c>
@@ -8310,8 +9044,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="115"/>
-      <c r="B169" s="115"/>
+      <c r="A169" s="112"/>
+      <c r="B169" s="112"/>
       <c r="C169" s="14">
         <v>25</v>
       </c>
@@ -8320,8 +9054,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="115"/>
-      <c r="B170" s="115"/>
+      <c r="A170" s="112"/>
+      <c r="B170" s="112"/>
       <c r="C170" s="13">
         <v>26</v>
       </c>
@@ -8330,8 +9064,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="115"/>
-      <c r="B171" s="115"/>
+      <c r="A171" s="112"/>
+      <c r="B171" s="112"/>
       <c r="C171" s="14">
         <v>27</v>
       </c>
@@ -8340,8 +9074,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="115"/>
-      <c r="B172" s="115"/>
+      <c r="A172" s="112"/>
+      <c r="B172" s="112"/>
       <c r="C172" s="13">
         <v>28</v>
       </c>
@@ -8350,8 +9084,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="115"/>
-      <c r="B173" s="115"/>
+      <c r="A173" s="112"/>
+      <c r="B173" s="112"/>
       <c r="C173" s="14">
         <v>29</v>
       </c>
@@ -8360,8 +9094,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="115"/>
-      <c r="B174" s="115"/>
+      <c r="A174" s="112"/>
+      <c r="B174" s="112"/>
       <c r="C174" s="13">
         <v>30</v>
       </c>
@@ -8370,8 +9104,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="115"/>
-      <c r="B175" s="115"/>
+      <c r="A175" s="112"/>
+      <c r="B175" s="112"/>
       <c r="C175" s="14">
         <v>31</v>
       </c>
@@ -8380,8 +9114,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="115"/>
-      <c r="B176" s="115"/>
+      <c r="A176" s="112"/>
+      <c r="B176" s="112"/>
       <c r="C176" s="13">
         <v>32</v>
       </c>
@@ -8390,8 +9124,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="115"/>
-      <c r="B177" s="115"/>
+      <c r="A177" s="112"/>
+      <c r="B177" s="112"/>
       <c r="C177" s="14">
         <v>41</v>
       </c>
@@ -8400,8 +9134,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="115"/>
-      <c r="B178" s="115"/>
+      <c r="A178" s="112"/>
+      <c r="B178" s="112"/>
       <c r="C178" s="13">
         <v>42</v>
       </c>
@@ -8410,8 +9144,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="115"/>
-      <c r="B179" s="115"/>
+      <c r="A179" s="112"/>
+      <c r="B179" s="112"/>
       <c r="C179" s="20">
         <v>43</v>
       </c>
@@ -8420,8 +9154,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="115"/>
-      <c r="B180" s="115"/>
+      <c r="A180" s="112"/>
+      <c r="B180" s="112"/>
       <c r="C180" s="10">
         <v>44</v>
       </c>
@@ -8430,8 +9164,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="115"/>
-      <c r="B181" s="115"/>
+      <c r="A181" s="112"/>
+      <c r="B181" s="112"/>
       <c r="C181" s="20">
         <v>45</v>
       </c>
@@ -8440,8 +9174,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="115"/>
-      <c r="B182" s="115"/>
+      <c r="A182" s="112"/>
+      <c r="B182" s="112"/>
       <c r="C182" s="10">
         <v>46</v>
       </c>
@@ -8450,8 +9184,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="115"/>
-      <c r="B183" s="115"/>
+      <c r="A183" s="112"/>
+      <c r="B183" s="112"/>
       <c r="C183" s="23">
         <v>47</v>
       </c>
@@ -8460,8 +9194,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="115"/>
-      <c r="B184" s="115"/>
+      <c r="A184" s="112"/>
+      <c r="B184" s="112"/>
       <c r="C184" s="13">
         <v>48</v>
       </c>
@@ -8470,8 +9204,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="115"/>
-      <c r="B185" s="115"/>
+      <c r="A185" s="112"/>
+      <c r="B185" s="112"/>
       <c r="C185" s="14">
         <v>49</v>
       </c>
@@ -8480,8 +9214,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="115"/>
-      <c r="B186" s="115"/>
+      <c r="A186" s="112"/>
+      <c r="B186" s="112"/>
       <c r="C186" s="13">
         <v>50</v>
       </c>
@@ -8490,8 +9224,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="115"/>
-      <c r="B187" s="115"/>
+      <c r="A187" s="112"/>
+      <c r="B187" s="112"/>
       <c r="C187" s="14">
         <v>51</v>
       </c>
@@ -8500,8 +9234,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="115"/>
-      <c r="B188" s="115"/>
+      <c r="A188" s="112"/>
+      <c r="B188" s="112"/>
       <c r="C188" s="13">
         <v>52</v>
       </c>
@@ -8510,8 +9244,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="115"/>
-      <c r="B189" s="115"/>
+      <c r="A189" s="112"/>
+      <c r="B189" s="112"/>
       <c r="C189" s="14">
         <v>53</v>
       </c>
@@ -8520,8 +9254,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="115"/>
-      <c r="B190" s="115"/>
+      <c r="A190" s="112"/>
+      <c r="B190" s="112"/>
       <c r="C190" s="13">
         <v>54</v>
       </c>
@@ -8530,8 +9264,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="115"/>
-      <c r="B191" s="115"/>
+      <c r="A191" s="112"/>
+      <c r="B191" s="112"/>
       <c r="C191" s="14">
         <v>55</v>
       </c>
@@ -8540,8 +9274,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="115"/>
-      <c r="B192" s="115"/>
+      <c r="A192" s="112"/>
+      <c r="B192" s="112"/>
       <c r="C192" s="13">
         <v>56</v>
       </c>
@@ -8550,8 +9284,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="116"/>
-      <c r="B193" s="116"/>
+      <c r="A193" s="103"/>
+      <c r="B193" s="103"/>
       <c r="C193" s="19">
         <v>88</v>
       </c>
@@ -8560,10 +9294,10 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="123" t="s">
+      <c r="A194" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="B194" s="118" t="s">
+      <c r="B194" s="120" t="s">
         <v>474</v>
       </c>
       <c r="C194" s="18">
@@ -8574,8 +9308,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="122"/>
-      <c r="B195" s="110"/>
+      <c r="A195" s="115"/>
+      <c r="B195" s="101"/>
       <c r="C195" s="20">
         <v>1</v>
       </c>
@@ -8584,8 +9318,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="122"/>
-      <c r="B196" s="110"/>
+      <c r="A196" s="115"/>
+      <c r="B196" s="101"/>
       <c r="C196" s="10">
         <v>2</v>
       </c>
@@ -8594,8 +9328,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="122"/>
-      <c r="B197" s="110"/>
+      <c r="A197" s="115"/>
+      <c r="B197" s="101"/>
       <c r="C197" s="20">
         <v>3</v>
       </c>
@@ -8604,8 +9338,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="122"/>
-      <c r="B198" s="110"/>
+      <c r="A198" s="115"/>
+      <c r="B198" s="101"/>
       <c r="C198" s="10">
         <v>4</v>
       </c>
@@ -8614,8 +9348,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="122"/>
-      <c r="B199" s="110"/>
+      <c r="A199" s="115"/>
+      <c r="B199" s="101"/>
       <c r="C199" s="23">
         <v>5</v>
       </c>
@@ -8624,8 +9358,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="122"/>
-      <c r="B200" s="110"/>
+      <c r="A200" s="115"/>
+      <c r="B200" s="101"/>
       <c r="C200" s="13">
         <v>6</v>
       </c>
@@ -8634,8 +9368,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="122"/>
-      <c r="B201" s="110"/>
+      <c r="A201" s="115"/>
+      <c r="B201" s="101"/>
       <c r="C201" s="14">
         <v>7</v>
       </c>
@@ -8644,8 +9378,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="122"/>
-      <c r="B202" s="110"/>
+      <c r="A202" s="115"/>
+      <c r="B202" s="101"/>
       <c r="C202" s="13">
         <v>8</v>
       </c>
@@ -8654,8 +9388,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="122"/>
-      <c r="B203" s="110"/>
+      <c r="A203" s="115"/>
+      <c r="B203" s="101"/>
       <c r="C203" s="14">
         <v>9</v>
       </c>
@@ -8664,8 +9398,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="122"/>
-      <c r="B204" s="110"/>
+      <c r="A204" s="115"/>
+      <c r="B204" s="101"/>
       <c r="C204" s="13">
         <v>10</v>
       </c>
@@ -8674,8 +9408,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="122"/>
-      <c r="B205" s="110"/>
+      <c r="A205" s="115"/>
+      <c r="B205" s="101"/>
       <c r="C205" s="14">
         <v>11</v>
       </c>
@@ -8684,8 +9418,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="122"/>
-      <c r="B206" s="110"/>
+      <c r="A206" s="115"/>
+      <c r="B206" s="101"/>
       <c r="C206" s="13">
         <v>12</v>
       </c>
@@ -8694,8 +9428,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="122"/>
-      <c r="B207" s="110"/>
+      <c r="A207" s="115"/>
+      <c r="B207" s="101"/>
       <c r="C207" s="14">
         <v>13</v>
       </c>
@@ -8704,8 +9438,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="122"/>
-      <c r="B208" s="110"/>
+      <c r="A208" s="115"/>
+      <c r="B208" s="101"/>
       <c r="C208" s="13">
         <v>14</v>
       </c>
@@ -8714,8 +9448,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="122"/>
-      <c r="B209" s="110"/>
+      <c r="A209" s="115"/>
+      <c r="B209" s="101"/>
       <c r="C209" s="14">
         <v>88</v>
       </c>
@@ -8724,8 +9458,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="124"/>
-      <c r="B210" s="111"/>
+      <c r="A210" s="117"/>
+      <c r="B210" s="105"/>
       <c r="C210" s="15">
         <v>99</v>
       </c>
@@ -8734,10 +9468,10 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="121" t="s">
+      <c r="A211" s="114" t="s">
         <v>491</v>
       </c>
-      <c r="B211" s="119" t="s">
+      <c r="B211" s="113" t="s">
         <v>492</v>
       </c>
       <c r="C211" s="14">
@@ -8748,8 +9482,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="122"/>
-      <c r="B212" s="110"/>
+      <c r="A212" s="115"/>
+      <c r="B212" s="101"/>
       <c r="C212" s="13">
         <v>2</v>
       </c>
@@ -8758,8 +9492,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="122"/>
-      <c r="B213" s="110"/>
+      <c r="A213" s="115"/>
+      <c r="B213" s="101"/>
       <c r="C213" s="14">
         <v>3</v>
       </c>
@@ -8768,8 +9502,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="122"/>
-      <c r="B214" s="110"/>
+      <c r="A214" s="115"/>
+      <c r="B214" s="101"/>
       <c r="C214" s="13">
         <v>4</v>
       </c>
@@ -8778,8 +9512,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="122"/>
-      <c r="B215" s="110"/>
+      <c r="A215" s="115"/>
+      <c r="B215" s="101"/>
       <c r="C215" s="14">
         <v>5</v>
       </c>
@@ -8788,8 +9522,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="122"/>
-      <c r="B216" s="110"/>
+      <c r="A216" s="115"/>
+      <c r="B216" s="101"/>
       <c r="C216" s="13">
         <v>6</v>
       </c>
@@ -8798,8 +9532,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="122"/>
-      <c r="B217" s="110"/>
+      <c r="A217" s="115"/>
+      <c r="B217" s="101"/>
       <c r="C217" s="20">
         <v>7</v>
       </c>
@@ -8808,8 +9542,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="122"/>
-      <c r="B218" s="110"/>
+      <c r="A218" s="115"/>
+      <c r="B218" s="101"/>
       <c r="C218" s="10">
         <v>88</v>
       </c>
@@ -8818,8 +9552,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="122"/>
-      <c r="B219" s="110"/>
+      <c r="A219" s="115"/>
+      <c r="B219" s="101"/>
       <c r="C219" s="20">
         <v>99</v>
       </c>
@@ -8828,10 +9562,10 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="123" t="s">
+      <c r="A220" s="116" t="s">
         <v>500</v>
       </c>
-      <c r="B220" s="118" t="s">
+      <c r="B220" s="120" t="s">
         <v>501</v>
       </c>
       <c r="C220" s="27">
@@ -8842,8 +9576,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="122"/>
-      <c r="B221" s="110"/>
+      <c r="A221" s="115"/>
+      <c r="B221" s="101"/>
       <c r="C221" s="23">
         <v>2</v>
       </c>
@@ -8852,8 +9586,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="122"/>
-      <c r="B222" s="110"/>
+      <c r="A222" s="115"/>
+      <c r="B222" s="101"/>
       <c r="C222" s="13">
         <v>3</v>
       </c>
@@ -8862,8 +9596,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="122"/>
-      <c r="B223" s="110"/>
+      <c r="A223" s="115"/>
+      <c r="B223" s="101"/>
       <c r="C223" s="14">
         <v>4</v>
       </c>
@@ -8872,8 +9606,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="122"/>
-      <c r="B224" s="110"/>
+      <c r="A224" s="115"/>
+      <c r="B224" s="101"/>
       <c r="C224" s="13">
         <v>5</v>
       </c>
@@ -8882,8 +9616,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="122"/>
-      <c r="B225" s="110"/>
+      <c r="A225" s="115"/>
+      <c r="B225" s="101"/>
       <c r="C225" s="14">
         <v>88</v>
       </c>
@@ -8892,8 +9626,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="124"/>
-      <c r="B226" s="111"/>
+      <c r="A226" s="117"/>
+      <c r="B226" s="105"/>
       <c r="C226" s="15">
         <v>99</v>
       </c>
@@ -8902,10 +9636,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="121" t="s">
+      <c r="A227" s="114" t="s">
         <v>507</v>
       </c>
-      <c r="B227" s="119" t="s">
+      <c r="B227" s="113" t="s">
         <v>508</v>
       </c>
       <c r="C227" s="14">
@@ -8916,8 +9650,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="122"/>
-      <c r="B228" s="110"/>
+      <c r="A228" s="115"/>
+      <c r="B228" s="101"/>
       <c r="C228" s="13">
         <v>1</v>
       </c>
@@ -8926,8 +9660,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="122"/>
-      <c r="B229" s="110"/>
+      <c r="A229" s="115"/>
+      <c r="B229" s="101"/>
       <c r="C229" s="14">
         <v>2</v>
       </c>
@@ -8936,8 +9670,8 @@
       </c>
     </row>
     <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="122"/>
-      <c r="B230" s="110"/>
+      <c r="A230" s="115"/>
+      <c r="B230" s="101"/>
       <c r="C230" s="13">
         <v>3</v>
       </c>
@@ -8946,8 +9680,8 @@
       </c>
     </row>
     <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="122"/>
-      <c r="B231" s="110"/>
+      <c r="A231" s="115"/>
+      <c r="B231" s="101"/>
       <c r="C231" s="14">
         <v>4</v>
       </c>
@@ -8956,8 +9690,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="122"/>
-      <c r="B232" s="110"/>
+      <c r="A232" s="115"/>
+      <c r="B232" s="101"/>
       <c r="C232" s="13">
         <v>88</v>
       </c>
@@ -8966,10 +9700,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="123" t="s">
+      <c r="A233" s="116" t="s">
         <v>513</v>
       </c>
-      <c r="B233" s="118" t="s">
+      <c r="B233" s="120" t="s">
         <v>514</v>
       </c>
       <c r="C233" s="24">
@@ -8980,8 +9714,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="122"/>
-      <c r="B234" s="110"/>
+      <c r="A234" s="115"/>
+      <c r="B234" s="101"/>
       <c r="C234" s="13">
         <v>2</v>
       </c>
@@ -8990,8 +9724,8 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="122"/>
-      <c r="B235" s="110"/>
+      <c r="A235" s="115"/>
+      <c r="B235" s="101"/>
       <c r="C235" s="14">
         <v>3</v>
       </c>
@@ -9000,8 +9734,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="122"/>
-      <c r="B236" s="110"/>
+      <c r="A236" s="115"/>
+      <c r="B236" s="101"/>
       <c r="C236" s="13">
         <v>4</v>
       </c>
@@ -9010,8 +9744,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="122"/>
-      <c r="B237" s="110"/>
+      <c r="A237" s="115"/>
+      <c r="B237" s="101"/>
       <c r="C237" s="14">
         <v>5</v>
       </c>
@@ -9020,8 +9754,8 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="122"/>
-      <c r="B238" s="110"/>
+      <c r="A238" s="115"/>
+      <c r="B238" s="101"/>
       <c r="C238" s="13">
         <v>6</v>
       </c>
@@ -9030,8 +9764,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="122"/>
-      <c r="B239" s="110"/>
+      <c r="A239" s="115"/>
+      <c r="B239" s="101"/>
       <c r="C239" s="20">
         <v>7</v>
       </c>
@@ -9040,8 +9774,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="122"/>
-      <c r="B240" s="110"/>
+      <c r="A240" s="115"/>
+      <c r="B240" s="101"/>
       <c r="C240" s="10">
         <v>8</v>
       </c>
@@ -9050,8 +9784,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="122"/>
-      <c r="B241" s="110"/>
+      <c r="A241" s="115"/>
+      <c r="B241" s="101"/>
       <c r="C241" s="20">
         <v>9</v>
       </c>
@@ -9060,8 +9794,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="122"/>
-      <c r="B242" s="110"/>
+      <c r="A242" s="115"/>
+      <c r="B242" s="101"/>
       <c r="C242" s="10">
         <v>10</v>
       </c>
@@ -9070,8 +9804,8 @@
       </c>
     </row>
     <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="122"/>
-      <c r="B243" s="110"/>
+      <c r="A243" s="115"/>
+      <c r="B243" s="101"/>
       <c r="C243" s="23">
         <v>11</v>
       </c>
@@ -9080,8 +9814,8 @@
       </c>
     </row>
     <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="122"/>
-      <c r="B244" s="110"/>
+      <c r="A244" s="115"/>
+      <c r="B244" s="101"/>
       <c r="C244" s="13">
         <v>12</v>
       </c>
@@ -9090,8 +9824,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="122"/>
-      <c r="B245" s="110"/>
+      <c r="A245" s="115"/>
+      <c r="B245" s="101"/>
       <c r="C245" s="14">
         <v>13</v>
       </c>
@@ -9100,8 +9834,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="122"/>
-      <c r="B246" s="110"/>
+      <c r="A246" s="115"/>
+      <c r="B246" s="101"/>
       <c r="C246" s="13">
         <v>14</v>
       </c>
@@ -9110,8 +9844,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="122"/>
-      <c r="B247" s="110"/>
+      <c r="A247" s="115"/>
+      <c r="B247" s="101"/>
       <c r="C247" s="14">
         <v>15</v>
       </c>
@@ -9120,8 +9854,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="122"/>
-      <c r="B248" s="110"/>
+      <c r="A248" s="115"/>
+      <c r="B248" s="101"/>
       <c r="C248" s="13">
         <v>16</v>
       </c>
@@ -9130,8 +9864,8 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="122"/>
-      <c r="B249" s="110"/>
+      <c r="A249" s="115"/>
+      <c r="B249" s="101"/>
       <c r="C249" s="14">
         <v>17</v>
       </c>
@@ -9140,8 +9874,8 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="122"/>
-      <c r="B250" s="110"/>
+      <c r="A250" s="115"/>
+      <c r="B250" s="101"/>
       <c r="C250" s="13">
         <v>18</v>
       </c>
@@ -9150,8 +9884,8 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="122"/>
-      <c r="B251" s="110"/>
+      <c r="A251" s="115"/>
+      <c r="B251" s="101"/>
       <c r="C251" s="14">
         <v>19</v>
       </c>
@@ -9160,8 +9894,8 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="122"/>
-      <c r="B252" s="110"/>
+      <c r="A252" s="115"/>
+      <c r="B252" s="101"/>
       <c r="C252" s="13">
         <v>20</v>
       </c>
@@ -9170,8 +9904,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="122"/>
-      <c r="B253" s="110"/>
+      <c r="A253" s="115"/>
+      <c r="B253" s="101"/>
       <c r="C253" s="14">
         <v>21</v>
       </c>
@@ -9180,8 +9914,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="122"/>
-      <c r="B254" s="110"/>
+      <c r="A254" s="115"/>
+      <c r="B254" s="101"/>
       <c r="C254" s="13">
         <v>22</v>
       </c>
@@ -9190,8 +9924,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="122"/>
-      <c r="B255" s="110"/>
+      <c r="A255" s="115"/>
+      <c r="B255" s="101"/>
       <c r="C255" s="14">
         <v>23</v>
       </c>
@@ -9200,8 +9934,8 @@
       </c>
     </row>
     <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="122"/>
-      <c r="B256" s="110"/>
+      <c r="A256" s="115"/>
+      <c r="B256" s="101"/>
       <c r="C256" s="13">
         <v>24</v>
       </c>
@@ -9210,8 +9944,8 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="122"/>
-      <c r="B257" s="110"/>
+      <c r="A257" s="115"/>
+      <c r="B257" s="101"/>
       <c r="C257" s="14">
         <v>25</v>
       </c>
@@ -9220,8 +9954,8 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="122"/>
-      <c r="B258" s="110"/>
+      <c r="A258" s="115"/>
+      <c r="B258" s="101"/>
       <c r="C258" s="13">
         <v>26</v>
       </c>
@@ -9230,8 +9964,8 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="122"/>
-      <c r="B259" s="110"/>
+      <c r="A259" s="115"/>
+      <c r="B259" s="101"/>
       <c r="C259" s="14">
         <v>27</v>
       </c>
@@ -9240,8 +9974,8 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="122"/>
-      <c r="B260" s="110"/>
+      <c r="A260" s="115"/>
+      <c r="B260" s="101"/>
       <c r="C260" s="13">
         <v>28</v>
       </c>
@@ -9250,8 +9984,8 @@
       </c>
     </row>
     <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="122"/>
-      <c r="B261" s="110"/>
+      <c r="A261" s="115"/>
+      <c r="B261" s="101"/>
       <c r="C261" s="20">
         <v>29</v>
       </c>
@@ -9260,8 +9994,8 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="122"/>
-      <c r="B262" s="110"/>
+      <c r="A262" s="115"/>
+      <c r="B262" s="101"/>
       <c r="C262" s="10">
         <v>30</v>
       </c>
@@ -9270,8 +10004,8 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="122"/>
-      <c r="B263" s="110"/>
+      <c r="A263" s="115"/>
+      <c r="B263" s="101"/>
       <c r="C263" s="20">
         <v>31</v>
       </c>
@@ -9280,8 +10014,8 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="122"/>
-      <c r="B264" s="110"/>
+      <c r="A264" s="115"/>
+      <c r="B264" s="101"/>
       <c r="C264" s="10">
         <v>32</v>
       </c>
@@ -9290,8 +10024,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="122"/>
-      <c r="B265" s="110"/>
+      <c r="A265" s="115"/>
+      <c r="B265" s="101"/>
       <c r="C265" s="23">
         <v>41</v>
       </c>
@@ -9300,8 +10034,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="122"/>
-      <c r="B266" s="110"/>
+      <c r="A266" s="115"/>
+      <c r="B266" s="101"/>
       <c r="C266" s="13">
         <v>42</v>
       </c>
@@ -9310,8 +10044,8 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="122"/>
-      <c r="B267" s="110"/>
+      <c r="A267" s="115"/>
+      <c r="B267" s="101"/>
       <c r="C267" s="14">
         <v>43</v>
       </c>
@@ -9320,8 +10054,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="122"/>
-      <c r="B268" s="110"/>
+      <c r="A268" s="115"/>
+      <c r="B268" s="101"/>
       <c r="C268" s="13">
         <v>44</v>
       </c>
@@ -9330,8 +10064,8 @@
       </c>
     </row>
     <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="122"/>
-      <c r="B269" s="110"/>
+      <c r="A269" s="115"/>
+      <c r="B269" s="101"/>
       <c r="C269" s="14">
         <v>45</v>
       </c>
@@ -9340,8 +10074,8 @@
       </c>
     </row>
     <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="122"/>
-      <c r="B270" s="110"/>
+      <c r="A270" s="115"/>
+      <c r="B270" s="101"/>
       <c r="C270" s="13">
         <v>46</v>
       </c>
@@ -9350,8 +10084,8 @@
       </c>
     </row>
     <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="122"/>
-      <c r="B271" s="110"/>
+      <c r="A271" s="115"/>
+      <c r="B271" s="101"/>
       <c r="C271" s="14">
         <v>47</v>
       </c>
@@ -9360,8 +10094,8 @@
       </c>
     </row>
     <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="122"/>
-      <c r="B272" s="110"/>
+      <c r="A272" s="115"/>
+      <c r="B272" s="101"/>
       <c r="C272" s="13">
         <v>48</v>
       </c>
@@ -9370,8 +10104,8 @@
       </c>
     </row>
     <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="122"/>
-      <c r="B273" s="110"/>
+      <c r="A273" s="115"/>
+      <c r="B273" s="101"/>
       <c r="C273" s="14">
         <v>49</v>
       </c>
@@ -9380,8 +10114,8 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="122"/>
-      <c r="B274" s="110"/>
+      <c r="A274" s="115"/>
+      <c r="B274" s="101"/>
       <c r="C274" s="13">
         <v>50</v>
       </c>
@@ -9390,8 +10124,8 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="122"/>
-      <c r="B275" s="110"/>
+      <c r="A275" s="115"/>
+      <c r="B275" s="101"/>
       <c r="C275" s="14">
         <v>51</v>
       </c>
@@ -9400,8 +10134,8 @@
       </c>
     </row>
     <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="122"/>
-      <c r="B276" s="110"/>
+      <c r="A276" s="115"/>
+      <c r="B276" s="101"/>
       <c r="C276" s="13">
         <v>52</v>
       </c>
@@ -9410,8 +10144,8 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="122"/>
-      <c r="B277" s="110"/>
+      <c r="A277" s="115"/>
+      <c r="B277" s="101"/>
       <c r="C277" s="14">
         <v>53</v>
       </c>
@@ -9420,8 +10154,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="122"/>
-      <c r="B278" s="110"/>
+      <c r="A278" s="115"/>
+      <c r="B278" s="101"/>
       <c r="C278" s="13">
         <v>54</v>
       </c>
@@ -9430,8 +10164,8 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="122"/>
-      <c r="B279" s="110"/>
+      <c r="A279" s="115"/>
+      <c r="B279" s="101"/>
       <c r="C279" s="14">
         <v>55</v>
       </c>
@@ -9440,8 +10174,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="122"/>
-      <c r="B280" s="110"/>
+      <c r="A280" s="115"/>
+      <c r="B280" s="101"/>
       <c r="C280" s="13">
         <v>56</v>
       </c>
@@ -9450,8 +10184,8 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="122"/>
-      <c r="B281" s="110"/>
+      <c r="A281" s="115"/>
+      <c r="B281" s="101"/>
       <c r="C281" s="14">
         <v>57</v>
       </c>
@@ -9460,8 +10194,8 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="122"/>
-      <c r="B282" s="110"/>
+      <c r="A282" s="115"/>
+      <c r="B282" s="101"/>
       <c r="C282" s="13">
         <v>88</v>
       </c>
@@ -9470,8 +10204,8 @@
       </c>
     </row>
     <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="124"/>
-      <c r="B283" s="111"/>
+      <c r="A283" s="117"/>
+      <c r="B283" s="105"/>
       <c r="C283" s="25">
         <v>99</v>
       </c>
@@ -9480,10 +10214,10 @@
       </c>
     </row>
     <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="121" t="s">
+      <c r="A284" s="114" t="s">
         <v>516</v>
       </c>
-      <c r="B284" s="119" t="s">
+      <c r="B284" s="113" t="s">
         <v>517</v>
       </c>
       <c r="C284" s="10">
@@ -9494,8 +10228,8 @@
       </c>
     </row>
     <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="122"/>
-      <c r="B285" s="110"/>
+      <c r="A285" s="115"/>
+      <c r="B285" s="101"/>
       <c r="C285" s="20">
         <v>2</v>
       </c>
@@ -9504,8 +10238,8 @@
       </c>
     </row>
     <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="122"/>
-      <c r="B286" s="110"/>
+      <c r="A286" s="115"/>
+      <c r="B286" s="101"/>
       <c r="C286" s="10">
         <v>3</v>
       </c>
@@ -9514,8 +10248,8 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="122"/>
-      <c r="B287" s="110"/>
+      <c r="A287" s="115"/>
+      <c r="B287" s="101"/>
       <c r="C287" s="23">
         <v>4</v>
       </c>
@@ -9524,8 +10258,8 @@
       </c>
     </row>
     <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="122"/>
-      <c r="B288" s="110"/>
+      <c r="A288" s="115"/>
+      <c r="B288" s="101"/>
       <c r="C288" s="13">
         <v>5</v>
       </c>
@@ -9534,8 +10268,8 @@
       </c>
     </row>
     <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="122"/>
-      <c r="B289" s="110"/>
+      <c r="A289" s="115"/>
+      <c r="B289" s="101"/>
       <c r="C289" s="14">
         <v>6</v>
       </c>
@@ -9544,8 +10278,8 @@
       </c>
     </row>
     <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="122"/>
-      <c r="B290" s="110"/>
+      <c r="A290" s="115"/>
+      <c r="B290" s="101"/>
       <c r="C290" s="13">
         <v>7</v>
       </c>
@@ -9554,8 +10288,8 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="122"/>
-      <c r="B291" s="110"/>
+      <c r="A291" s="115"/>
+      <c r="B291" s="101"/>
       <c r="C291" s="14">
         <v>8</v>
       </c>
@@ -9564,8 +10298,8 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="122"/>
-      <c r="B292" s="110"/>
+      <c r="A292" s="115"/>
+      <c r="B292" s="101"/>
       <c r="C292" s="13">
         <v>9</v>
       </c>
@@ -9574,8 +10308,8 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="122"/>
-      <c r="B293" s="110"/>
+      <c r="A293" s="115"/>
+      <c r="B293" s="101"/>
       <c r="C293" s="14">
         <v>10</v>
       </c>
@@ -9584,8 +10318,8 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="122"/>
-      <c r="B294" s="110"/>
+      <c r="A294" s="115"/>
+      <c r="B294" s="101"/>
       <c r="C294" s="13">
         <v>11</v>
       </c>
@@ -9594,8 +10328,8 @@
       </c>
     </row>
     <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="122"/>
-      <c r="B295" s="110"/>
+      <c r="A295" s="115"/>
+      <c r="B295" s="101"/>
       <c r="C295" s="14">
         <v>12</v>
       </c>
@@ -9604,8 +10338,8 @@
       </c>
     </row>
     <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="122"/>
-      <c r="B296" s="110"/>
+      <c r="A296" s="115"/>
+      <c r="B296" s="101"/>
       <c r="C296" s="13">
         <v>13</v>
       </c>
@@ -9614,8 +10348,8 @@
       </c>
     </row>
     <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="122"/>
-      <c r="B297" s="110"/>
+      <c r="A297" s="115"/>
+      <c r="B297" s="101"/>
       <c r="C297" s="14">
         <v>14</v>
       </c>
@@ -9624,8 +10358,8 @@
       </c>
     </row>
     <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="122"/>
-      <c r="B298" s="110"/>
+      <c r="A298" s="115"/>
+      <c r="B298" s="101"/>
       <c r="C298" s="13">
         <v>15</v>
       </c>
@@ -9634,8 +10368,8 @@
       </c>
     </row>
     <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="122"/>
-      <c r="B299" s="110"/>
+      <c r="A299" s="115"/>
+      <c r="B299" s="101"/>
       <c r="C299" s="14">
         <v>16</v>
       </c>
@@ -9644,8 +10378,8 @@
       </c>
     </row>
     <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="122"/>
-      <c r="B300" s="110"/>
+      <c r="A300" s="115"/>
+      <c r="B300" s="101"/>
       <c r="C300" s="13">
         <v>17</v>
       </c>
@@ -9654,8 +10388,8 @@
       </c>
     </row>
     <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="122"/>
-      <c r="B301" s="110"/>
+      <c r="A301" s="115"/>
+      <c r="B301" s="101"/>
       <c r="C301" s="14">
         <v>18</v>
       </c>
@@ -9664,8 +10398,8 @@
       </c>
     </row>
     <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="122"/>
-      <c r="B302" s="110"/>
+      <c r="A302" s="115"/>
+      <c r="B302" s="101"/>
       <c r="C302" s="13">
         <v>19</v>
       </c>
@@ -9674,8 +10408,8 @@
       </c>
     </row>
     <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="122"/>
-      <c r="B303" s="110"/>
+      <c r="A303" s="115"/>
+      <c r="B303" s="101"/>
       <c r="C303" s="14">
         <v>20</v>
       </c>
@@ -9684,8 +10418,8 @@
       </c>
     </row>
     <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="122"/>
-      <c r="B304" s="110"/>
+      <c r="A304" s="115"/>
+      <c r="B304" s="101"/>
       <c r="C304" s="13">
         <v>88</v>
       </c>
@@ -9694,8 +10428,8 @@
       </c>
     </row>
     <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="122"/>
-      <c r="B305" s="110"/>
+      <c r="A305" s="115"/>
+      <c r="B305" s="101"/>
       <c r="C305" s="20">
         <v>99</v>
       </c>
@@ -9704,10 +10438,10 @@
       </c>
     </row>
     <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="123" t="s">
+      <c r="A306" s="116" t="s">
         <v>539</v>
       </c>
-      <c r="B306" s="118" t="s">
+      <c r="B306" s="120" t="s">
         <v>540</v>
       </c>
       <c r="C306" s="27">
@@ -9718,8 +10452,8 @@
       </c>
     </row>
     <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="122"/>
-      <c r="B307" s="110"/>
+      <c r="A307" s="115"/>
+      <c r="B307" s="101"/>
       <c r="C307" s="20">
         <v>2</v>
       </c>
@@ -9728,8 +10462,8 @@
       </c>
     </row>
     <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="122"/>
-      <c r="B308" s="110"/>
+      <c r="A308" s="115"/>
+      <c r="B308" s="101"/>
       <c r="C308" s="10">
         <v>3</v>
       </c>
@@ -9738,8 +10472,8 @@
       </c>
     </row>
     <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="122"/>
-      <c r="B309" s="110"/>
+      <c r="A309" s="115"/>
+      <c r="B309" s="101"/>
       <c r="C309" s="23">
         <v>4</v>
       </c>
@@ -9748,8 +10482,8 @@
       </c>
     </row>
     <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="122"/>
-      <c r="B310" s="110"/>
+      <c r="A310" s="115"/>
+      <c r="B310" s="101"/>
       <c r="C310" s="13">
         <v>5</v>
       </c>
@@ -9758,8 +10492,8 @@
       </c>
     </row>
     <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="122"/>
-      <c r="B311" s="110"/>
+      <c r="A311" s="115"/>
+      <c r="B311" s="101"/>
       <c r="C311" s="14">
         <v>6</v>
       </c>
@@ -9768,8 +10502,8 @@
       </c>
     </row>
     <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="122"/>
-      <c r="B312" s="110"/>
+      <c r="A312" s="115"/>
+      <c r="B312" s="101"/>
       <c r="C312" s="13">
         <v>7</v>
       </c>
@@ -9778,8 +10512,8 @@
       </c>
     </row>
     <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="122"/>
-      <c r="B313" s="110"/>
+      <c r="A313" s="115"/>
+      <c r="B313" s="101"/>
       <c r="C313" s="14">
         <v>8</v>
       </c>
@@ -9788,8 +10522,8 @@
       </c>
     </row>
     <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="122"/>
-      <c r="B314" s="110"/>
+      <c r="A314" s="115"/>
+      <c r="B314" s="101"/>
       <c r="C314" s="13">
         <v>9</v>
       </c>
@@ -9798,8 +10532,8 @@
       </c>
     </row>
     <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="122"/>
-      <c r="B315" s="110"/>
+      <c r="A315" s="115"/>
+      <c r="B315" s="101"/>
       <c r="C315" s="14">
         <v>88</v>
       </c>
@@ -9808,8 +10542,8 @@
       </c>
     </row>
     <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="124"/>
-      <c r="B316" s="111"/>
+      <c r="A316" s="117"/>
+      <c r="B316" s="105"/>
       <c r="C316" s="15">
         <v>99</v>
       </c>
@@ -9818,10 +10552,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="121" t="s">
+      <c r="A317" s="114" t="s">
         <v>550</v>
       </c>
-      <c r="B317" s="119" t="s">
+      <c r="B317" s="113" t="s">
         <v>551</v>
       </c>
       <c r="C317" s="14">
@@ -9832,8 +10566,8 @@
       </c>
     </row>
     <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="122"/>
-      <c r="B318" s="110"/>
+      <c r="A318" s="115"/>
+      <c r="B318" s="101"/>
       <c r="C318" s="13">
         <v>1</v>
       </c>
@@ -9842,8 +10576,8 @@
       </c>
     </row>
     <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="122"/>
-      <c r="B319" s="110"/>
+      <c r="A319" s="115"/>
+      <c r="B319" s="101"/>
       <c r="C319" s="14">
         <v>2</v>
       </c>
@@ -9852,8 +10586,8 @@
       </c>
     </row>
     <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="122"/>
-      <c r="B320" s="110"/>
+      <c r="A320" s="115"/>
+      <c r="B320" s="101"/>
       <c r="C320" s="13">
         <v>3</v>
       </c>
@@ -9862,8 +10596,8 @@
       </c>
     </row>
     <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="122"/>
-      <c r="B321" s="110"/>
+      <c r="A321" s="115"/>
+      <c r="B321" s="101"/>
       <c r="C321" s="14">
         <v>4</v>
       </c>
@@ -9872,8 +10606,8 @@
       </c>
     </row>
     <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="122"/>
-      <c r="B322" s="110"/>
+      <c r="A322" s="115"/>
+      <c r="B322" s="101"/>
       <c r="C322" s="13">
         <v>5</v>
       </c>
@@ -9882,8 +10616,8 @@
       </c>
     </row>
     <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="122"/>
-      <c r="B323" s="110"/>
+      <c r="A323" s="115"/>
+      <c r="B323" s="101"/>
       <c r="C323" s="14">
         <v>6</v>
       </c>
@@ -9892,8 +10626,8 @@
       </c>
     </row>
     <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="122"/>
-      <c r="B324" s="110"/>
+      <c r="A324" s="115"/>
+      <c r="B324" s="101"/>
       <c r="C324" s="13">
         <v>88</v>
       </c>
@@ -9902,8 +10636,8 @@
       </c>
     </row>
     <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="122"/>
-      <c r="B325" s="110"/>
+      <c r="A325" s="115"/>
+      <c r="B325" s="101"/>
       <c r="C325" s="14">
         <v>99</v>
       </c>
@@ -9912,10 +10646,10 @@
       </c>
     </row>
     <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="123" t="s">
+      <c r="A326" s="116" t="s">
         <v>558</v>
       </c>
-      <c r="B326" s="118" t="s">
+      <c r="B326" s="120" t="s">
         <v>559</v>
       </c>
       <c r="C326" s="18">
@@ -9926,8 +10660,8 @@
       </c>
     </row>
     <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="122"/>
-      <c r="B327" s="110"/>
+      <c r="A327" s="115"/>
+      <c r="B327" s="101"/>
       <c r="C327" s="20">
         <v>1</v>
       </c>
@@ -9936,8 +10670,8 @@
       </c>
     </row>
     <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="122"/>
-      <c r="B328" s="110"/>
+      <c r="A328" s="115"/>
+      <c r="B328" s="101"/>
       <c r="C328" s="10">
         <v>2</v>
       </c>
@@ -9946,8 +10680,8 @@
       </c>
     </row>
     <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="122"/>
-      <c r="B329" s="110"/>
+      <c r="A329" s="115"/>
+      <c r="B329" s="101"/>
       <c r="C329" s="20">
         <v>3</v>
       </c>
@@ -9956,8 +10690,8 @@
       </c>
     </row>
     <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="122"/>
-      <c r="B330" s="110"/>
+      <c r="A330" s="115"/>
+      <c r="B330" s="101"/>
       <c r="C330" s="10">
         <v>4</v>
       </c>
@@ -9966,8 +10700,8 @@
       </c>
     </row>
     <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="122"/>
-      <c r="B331" s="110"/>
+      <c r="A331" s="115"/>
+      <c r="B331" s="101"/>
       <c r="C331" s="23">
         <v>5</v>
       </c>
@@ -9976,8 +10710,8 @@
       </c>
     </row>
     <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="122"/>
-      <c r="B332" s="110"/>
+      <c r="A332" s="115"/>
+      <c r="B332" s="101"/>
       <c r="C332" s="13">
         <v>6</v>
       </c>
@@ -9986,8 +10720,8 @@
       </c>
     </row>
     <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="122"/>
-      <c r="B333" s="110"/>
+      <c r="A333" s="115"/>
+      <c r="B333" s="101"/>
       <c r="C333" s="14">
         <v>7</v>
       </c>
@@ -9996,8 +10730,8 @@
       </c>
     </row>
     <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="122"/>
-      <c r="B334" s="110"/>
+      <c r="A334" s="115"/>
+      <c r="B334" s="101"/>
       <c r="C334" s="13">
         <v>8</v>
       </c>
@@ -10006,8 +10740,8 @@
       </c>
     </row>
     <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="122"/>
-      <c r="B335" s="110"/>
+      <c r="A335" s="115"/>
+      <c r="B335" s="101"/>
       <c r="C335" s="14">
         <v>88</v>
       </c>
@@ -10016,8 +10750,8 @@
       </c>
     </row>
     <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="124"/>
-      <c r="B336" s="111"/>
+      <c r="A336" s="117"/>
+      <c r="B336" s="105"/>
       <c r="C336" s="15">
         <v>99</v>
       </c>
@@ -10026,10 +10760,10 @@
       </c>
     </row>
     <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="121" t="s">
+      <c r="A337" s="114" t="s">
         <v>568</v>
       </c>
-      <c r="B337" s="119" t="s">
+      <c r="B337" s="113" t="s">
         <v>569</v>
       </c>
       <c r="C337" s="14">
@@ -10040,8 +10774,8 @@
       </c>
     </row>
     <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="122"/>
-      <c r="B338" s="110"/>
+      <c r="A338" s="115"/>
+      <c r="B338" s="101"/>
       <c r="C338" s="13">
         <v>2</v>
       </c>
@@ -10050,8 +10784,8 @@
       </c>
     </row>
     <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="122"/>
-      <c r="B339" s="110"/>
+      <c r="A339" s="115"/>
+      <c r="B339" s="101"/>
       <c r="C339" s="14">
         <v>3</v>
       </c>
@@ -10060,8 +10794,8 @@
       </c>
     </row>
     <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="122"/>
-      <c r="B340" s="110"/>
+      <c r="A340" s="115"/>
+      <c r="B340" s="101"/>
       <c r="C340" s="13">
         <v>4</v>
       </c>
@@ -10070,8 +10804,8 @@
       </c>
     </row>
     <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="122"/>
-      <c r="B341" s="110"/>
+      <c r="A341" s="115"/>
+      <c r="B341" s="101"/>
       <c r="C341" s="14">
         <v>5</v>
       </c>
@@ -10080,8 +10814,8 @@
       </c>
     </row>
     <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="122"/>
-      <c r="B342" s="110"/>
+      <c r="A342" s="115"/>
+      <c r="B342" s="101"/>
       <c r="C342" s="13">
         <v>6</v>
       </c>
@@ -10090,8 +10824,8 @@
       </c>
     </row>
     <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="122"/>
-      <c r="B343" s="110"/>
+      <c r="A343" s="115"/>
+      <c r="B343" s="101"/>
       <c r="C343" s="14">
         <v>7</v>
       </c>
@@ -10100,8 +10834,8 @@
       </c>
     </row>
     <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="122"/>
-      <c r="B344" s="110"/>
+      <c r="A344" s="115"/>
+      <c r="B344" s="101"/>
       <c r="C344" s="13">
         <v>8</v>
       </c>
@@ -10110,8 +10844,8 @@
       </c>
     </row>
     <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="122"/>
-      <c r="B345" s="110"/>
+      <c r="A345" s="115"/>
+      <c r="B345" s="101"/>
       <c r="C345" s="14">
         <v>9</v>
       </c>
@@ -10120,8 +10854,8 @@
       </c>
     </row>
     <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="122"/>
-      <c r="B346" s="110"/>
+      <c r="A346" s="115"/>
+      <c r="B346" s="101"/>
       <c r="C346" s="13">
         <v>10</v>
       </c>
@@ -10130,8 +10864,8 @@
       </c>
     </row>
     <row r="347" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="122"/>
-      <c r="B347" s="110"/>
+      <c r="A347" s="115"/>
+      <c r="B347" s="101"/>
       <c r="C347" s="14">
         <v>11</v>
       </c>
@@ -10140,8 +10874,8 @@
       </c>
     </row>
     <row r="348" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="122"/>
-      <c r="B348" s="110"/>
+      <c r="A348" s="115"/>
+      <c r="B348" s="101"/>
       <c r="C348" s="13">
         <v>12</v>
       </c>
@@ -10150,8 +10884,8 @@
       </c>
     </row>
     <row r="349" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="122"/>
-      <c r="B349" s="110"/>
+      <c r="A349" s="115"/>
+      <c r="B349" s="101"/>
       <c r="C349" s="20">
         <v>13</v>
       </c>
@@ -10160,8 +10894,8 @@
       </c>
     </row>
     <row r="350" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="122"/>
-      <c r="B350" s="110"/>
+      <c r="A350" s="115"/>
+      <c r="B350" s="101"/>
       <c r="C350" s="10">
         <v>14</v>
       </c>
@@ -10170,8 +10904,8 @@
       </c>
     </row>
     <row r="351" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="122"/>
-      <c r="B351" s="110"/>
+      <c r="A351" s="115"/>
+      <c r="B351" s="101"/>
       <c r="C351" s="20">
         <v>15</v>
       </c>
@@ -10180,8 +10914,8 @@
       </c>
     </row>
     <row r="352" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="122"/>
-      <c r="B352" s="110"/>
+      <c r="A352" s="115"/>
+      <c r="B352" s="101"/>
       <c r="C352" s="10">
         <v>16</v>
       </c>
@@ -10190,8 +10924,8 @@
       </c>
     </row>
     <row r="353" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="122"/>
-      <c r="B353" s="110"/>
+      <c r="A353" s="115"/>
+      <c r="B353" s="101"/>
       <c r="C353" s="23">
         <v>17</v>
       </c>
@@ -10200,8 +10934,8 @@
       </c>
     </row>
     <row r="354" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="122"/>
-      <c r="B354" s="110"/>
+      <c r="A354" s="115"/>
+      <c r="B354" s="101"/>
       <c r="C354" s="13">
         <v>18</v>
       </c>
@@ -10210,8 +10944,8 @@
       </c>
     </row>
     <row r="355" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="122"/>
-      <c r="B355" s="110"/>
+      <c r="A355" s="115"/>
+      <c r="B355" s="101"/>
       <c r="C355" s="14">
         <v>19</v>
       </c>
@@ -10220,8 +10954,8 @@
       </c>
     </row>
     <row r="356" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="122"/>
-      <c r="B356" s="110"/>
+      <c r="A356" s="115"/>
+      <c r="B356" s="101"/>
       <c r="C356" s="13">
         <v>77</v>
       </c>
@@ -10230,8 +10964,8 @@
       </c>
     </row>
     <row r="357" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="122"/>
-      <c r="B357" s="110"/>
+      <c r="A357" s="115"/>
+      <c r="B357" s="101"/>
       <c r="C357" s="14">
         <v>88</v>
       </c>
@@ -10240,8 +10974,8 @@
       </c>
     </row>
     <row r="358" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="122"/>
-      <c r="B358" s="110"/>
+      <c r="A358" s="115"/>
+      <c r="B358" s="101"/>
       <c r="C358" s="13">
         <v>99</v>
       </c>
@@ -10250,10 +10984,10 @@
       </c>
     </row>
     <row r="359" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="123" t="s">
+      <c r="A359" s="116" t="s">
         <v>589</v>
       </c>
-      <c r="B359" s="118" t="s">
+      <c r="B359" s="120" t="s">
         <v>590</v>
       </c>
       <c r="C359" s="24">
@@ -10264,8 +10998,8 @@
       </c>
     </row>
     <row r="360" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="122"/>
-      <c r="B360" s="110"/>
+      <c r="A360" s="115"/>
+      <c r="B360" s="101"/>
       <c r="C360" s="13">
         <v>2</v>
       </c>
@@ -10274,8 +11008,8 @@
       </c>
     </row>
     <row r="361" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="122"/>
-      <c r="B361" s="110"/>
+      <c r="A361" s="115"/>
+      <c r="B361" s="101"/>
       <c r="C361" s="14">
         <v>3</v>
       </c>
@@ -10284,8 +11018,8 @@
       </c>
     </row>
     <row r="362" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="122"/>
-      <c r="B362" s="110"/>
+      <c r="A362" s="115"/>
+      <c r="B362" s="101"/>
       <c r="C362" s="13">
         <v>4</v>
       </c>
@@ -10294,8 +11028,8 @@
       </c>
     </row>
     <row r="363" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="122"/>
-      <c r="B363" s="110"/>
+      <c r="A363" s="115"/>
+      <c r="B363" s="101"/>
       <c r="C363" s="14">
         <v>5</v>
       </c>
@@ -10304,8 +11038,8 @@
       </c>
     </row>
     <row r="364" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="122"/>
-      <c r="B364" s="110"/>
+      <c r="A364" s="115"/>
+      <c r="B364" s="101"/>
       <c r="C364" s="13">
         <v>6</v>
       </c>
@@ -10314,8 +11048,8 @@
       </c>
     </row>
     <row r="365" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="122"/>
-      <c r="B365" s="110"/>
+      <c r="A365" s="115"/>
+      <c r="B365" s="101"/>
       <c r="C365" s="14">
         <v>7</v>
       </c>
@@ -10324,8 +11058,8 @@
       </c>
     </row>
     <row r="366" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="122"/>
-      <c r="B366" s="110"/>
+      <c r="A366" s="115"/>
+      <c r="B366" s="101"/>
       <c r="C366" s="13">
         <v>8</v>
       </c>
@@ -10334,8 +11068,8 @@
       </c>
     </row>
     <row r="367" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="122"/>
-      <c r="B367" s="110"/>
+      <c r="A367" s="115"/>
+      <c r="B367" s="101"/>
       <c r="C367" s="14">
         <v>9</v>
       </c>
@@ -10344,8 +11078,8 @@
       </c>
     </row>
     <row r="368" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="122"/>
-      <c r="B368" s="110"/>
+      <c r="A368" s="115"/>
+      <c r="B368" s="101"/>
       <c r="C368" s="13">
         <v>10</v>
       </c>
@@ -10354,8 +11088,8 @@
       </c>
     </row>
     <row r="369" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="122"/>
-      <c r="B369" s="110"/>
+      <c r="A369" s="115"/>
+      <c r="B369" s="101"/>
       <c r="C369" s="14">
         <v>11</v>
       </c>
@@ -10364,8 +11098,8 @@
       </c>
     </row>
     <row r="370" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="122"/>
-      <c r="B370" s="110"/>
+      <c r="A370" s="115"/>
+      <c r="B370" s="101"/>
       <c r="C370" s="13">
         <v>12</v>
       </c>
@@ -10374,8 +11108,8 @@
       </c>
     </row>
     <row r="371" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="122"/>
-      <c r="B371" s="110"/>
+      <c r="A371" s="115"/>
+      <c r="B371" s="101"/>
       <c r="C371" s="20">
         <v>13</v>
       </c>
@@ -10384,8 +11118,8 @@
       </c>
     </row>
     <row r="372" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="122"/>
-      <c r="B372" s="110"/>
+      <c r="A372" s="115"/>
+      <c r="B372" s="101"/>
       <c r="C372" s="10">
         <v>14</v>
       </c>
@@ -10394,8 +11128,8 @@
       </c>
     </row>
     <row r="373" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="122"/>
-      <c r="B373" s="110"/>
+      <c r="A373" s="115"/>
+      <c r="B373" s="101"/>
       <c r="C373" s="20">
         <v>88</v>
       </c>
@@ -10404,8 +11138,8 @@
       </c>
     </row>
     <row r="374" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="124"/>
-      <c r="B374" s="111"/>
+      <c r="A374" s="117"/>
+      <c r="B374" s="105"/>
       <c r="C374" s="28">
         <v>99</v>
       </c>
@@ -10414,10 +11148,10 @@
       </c>
     </row>
     <row r="375" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="121" t="s">
+      <c r="A375" s="114" t="s">
         <v>605</v>
       </c>
-      <c r="B375" s="119" t="s">
+      <c r="B375" s="113" t="s">
         <v>606</v>
       </c>
       <c r="C375" s="23">
@@ -10428,8 +11162,8 @@
       </c>
     </row>
     <row r="376" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="122"/>
-      <c r="B376" s="110"/>
+      <c r="A376" s="115"/>
+      <c r="B376" s="101"/>
       <c r="C376" s="13">
         <v>2</v>
       </c>
@@ -10438,8 +11172,8 @@
       </c>
     </row>
     <row r="377" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="122"/>
-      <c r="B377" s="110"/>
+      <c r="A377" s="115"/>
+      <c r="B377" s="101"/>
       <c r="C377" s="14">
         <v>3</v>
       </c>
@@ -10448,8 +11182,8 @@
       </c>
     </row>
     <row r="378" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="122"/>
-      <c r="B378" s="110"/>
+      <c r="A378" s="115"/>
+      <c r="B378" s="101"/>
       <c r="C378" s="13">
         <v>4</v>
       </c>
@@ -10458,8 +11192,8 @@
       </c>
     </row>
     <row r="379" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="122"/>
-      <c r="B379" s="110"/>
+      <c r="A379" s="115"/>
+      <c r="B379" s="101"/>
       <c r="C379" s="14">
         <v>5</v>
       </c>
@@ -10468,8 +11202,8 @@
       </c>
     </row>
     <row r="380" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="122"/>
-      <c r="B380" s="110"/>
+      <c r="A380" s="115"/>
+      <c r="B380" s="101"/>
       <c r="C380" s="13">
         <v>6</v>
       </c>
@@ -10478,8 +11212,8 @@
       </c>
     </row>
     <row r="381" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="122"/>
-      <c r="B381" s="110"/>
+      <c r="A381" s="115"/>
+      <c r="B381" s="101"/>
       <c r="C381" s="14">
         <v>7</v>
       </c>
@@ -10488,8 +11222,8 @@
       </c>
     </row>
     <row r="382" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="122"/>
-      <c r="B382" s="110"/>
+      <c r="A382" s="115"/>
+      <c r="B382" s="101"/>
       <c r="C382" s="13">
         <v>8</v>
       </c>
@@ -10498,8 +11232,8 @@
       </c>
     </row>
     <row r="383" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="122"/>
-      <c r="B383" s="110"/>
+      <c r="A383" s="115"/>
+      <c r="B383" s="101"/>
       <c r="C383" s="14">
         <v>9</v>
       </c>
@@ -10508,8 +11242,8 @@
       </c>
     </row>
     <row r="384" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="122"/>
-      <c r="B384" s="110"/>
+      <c r="A384" s="115"/>
+      <c r="B384" s="101"/>
       <c r="C384" s="13">
         <v>10</v>
       </c>
@@ -10518,8 +11252,8 @@
       </c>
     </row>
     <row r="385" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="122"/>
-      <c r="B385" s="110"/>
+      <c r="A385" s="115"/>
+      <c r="B385" s="101"/>
       <c r="C385" s="14">
         <v>11</v>
       </c>
@@ -10528,8 +11262,8 @@
       </c>
     </row>
     <row r="386" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="122"/>
-      <c r="B386" s="110"/>
+      <c r="A386" s="115"/>
+      <c r="B386" s="101"/>
       <c r="C386" s="13">
         <v>12</v>
       </c>
@@ -10538,8 +11272,8 @@
       </c>
     </row>
     <row r="387" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="122"/>
-      <c r="B387" s="110"/>
+      <c r="A387" s="115"/>
+      <c r="B387" s="101"/>
       <c r="C387" s="14">
         <v>13</v>
       </c>
@@ -10548,8 +11282,8 @@
       </c>
     </row>
     <row r="388" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="122"/>
-      <c r="B388" s="110"/>
+      <c r="A388" s="115"/>
+      <c r="B388" s="101"/>
       <c r="C388" s="13">
         <v>14</v>
       </c>
@@ -10558,8 +11292,8 @@
       </c>
     </row>
     <row r="389" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="122"/>
-      <c r="B389" s="110"/>
+      <c r="A389" s="115"/>
+      <c r="B389" s="101"/>
       <c r="C389" s="14">
         <v>15</v>
       </c>
@@ -10568,8 +11302,8 @@
       </c>
     </row>
     <row r="390" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="122"/>
-      <c r="B390" s="110"/>
+      <c r="A390" s="115"/>
+      <c r="B390" s="101"/>
       <c r="C390" s="13">
         <v>16</v>
       </c>
@@ -10578,8 +11312,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="122"/>
-      <c r="B391" s="110"/>
+      <c r="A391" s="115"/>
+      <c r="B391" s="101"/>
       <c r="C391" s="14">
         <v>17</v>
       </c>
@@ -10588,8 +11322,8 @@
       </c>
     </row>
     <row r="392" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="122"/>
-      <c r="B392" s="110"/>
+      <c r="A392" s="115"/>
+      <c r="B392" s="101"/>
       <c r="C392" s="13">
         <v>18</v>
       </c>
@@ -10598,8 +11332,8 @@
       </c>
     </row>
     <row r="393" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="122"/>
-      <c r="B393" s="110"/>
+      <c r="A393" s="115"/>
+      <c r="B393" s="101"/>
       <c r="C393" s="20">
         <v>19</v>
       </c>
@@ -10608,8 +11342,8 @@
       </c>
     </row>
     <row r="394" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="122"/>
-      <c r="B394" s="110"/>
+      <c r="A394" s="115"/>
+      <c r="B394" s="101"/>
       <c r="C394" s="10">
         <v>20</v>
       </c>
@@ -10618,8 +11352,8 @@
       </c>
     </row>
     <row r="395" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="122"/>
-      <c r="B395" s="110"/>
+      <c r="A395" s="115"/>
+      <c r="B395" s="101"/>
       <c r="C395" s="20">
         <v>21</v>
       </c>
@@ -10628,8 +11362,8 @@
       </c>
     </row>
     <row r="396" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="122"/>
-      <c r="B396" s="110"/>
+      <c r="A396" s="115"/>
+      <c r="B396" s="101"/>
       <c r="C396" s="10">
         <v>22</v>
       </c>
@@ -10638,8 +11372,8 @@
       </c>
     </row>
     <row r="397" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="122"/>
-      <c r="B397" s="110"/>
+      <c r="A397" s="115"/>
+      <c r="B397" s="101"/>
       <c r="C397" s="23">
         <v>23</v>
       </c>
@@ -10648,8 +11382,8 @@
       </c>
     </row>
     <row r="398" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="122"/>
-      <c r="B398" s="110"/>
+      <c r="A398" s="115"/>
+      <c r="B398" s="101"/>
       <c r="C398" s="13">
         <v>24</v>
       </c>
@@ -10658,8 +11392,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="122"/>
-      <c r="B399" s="110"/>
+      <c r="A399" s="115"/>
+      <c r="B399" s="101"/>
       <c r="C399" s="14">
         <v>25</v>
       </c>
@@ -10668,8 +11402,8 @@
       </c>
     </row>
     <row r="400" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="122"/>
-      <c r="B400" s="110"/>
+      <c r="A400" s="115"/>
+      <c r="B400" s="101"/>
       <c r="C400" s="13">
         <v>26</v>
       </c>
@@ -10678,8 +11412,8 @@
       </c>
     </row>
     <row r="401" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="122"/>
-      <c r="B401" s="110"/>
+      <c r="A401" s="115"/>
+      <c r="B401" s="101"/>
       <c r="C401" s="14">
         <v>27</v>
       </c>
@@ -10688,8 +11422,8 @@
       </c>
     </row>
     <row r="402" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="122"/>
-      <c r="B402" s="110"/>
+      <c r="A402" s="115"/>
+      <c r="B402" s="101"/>
       <c r="C402" s="13">
         <v>28</v>
       </c>
@@ -10698,8 +11432,8 @@
       </c>
     </row>
     <row r="403" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="122"/>
-      <c r="B403" s="110"/>
+      <c r="A403" s="115"/>
+      <c r="B403" s="101"/>
       <c r="C403" s="14">
         <v>29</v>
       </c>
@@ -10708,8 +11442,8 @@
       </c>
     </row>
     <row r="404" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="122"/>
-      <c r="B404" s="110"/>
+      <c r="A404" s="115"/>
+      <c r="B404" s="101"/>
       <c r="C404" s="13">
         <v>30</v>
       </c>
@@ -10718,8 +11452,8 @@
       </c>
     </row>
     <row r="405" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="122"/>
-      <c r="B405" s="110"/>
+      <c r="A405" s="115"/>
+      <c r="B405" s="101"/>
       <c r="C405" s="14">
         <v>31</v>
       </c>
@@ -10728,8 +11462,8 @@
       </c>
     </row>
     <row r="406" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="122"/>
-      <c r="B406" s="110"/>
+      <c r="A406" s="115"/>
+      <c r="B406" s="101"/>
       <c r="C406" s="13">
         <v>32</v>
       </c>
@@ -10738,8 +11472,8 @@
       </c>
     </row>
     <row r="407" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="122"/>
-      <c r="B407" s="110"/>
+      <c r="A407" s="115"/>
+      <c r="B407" s="101"/>
       <c r="C407" s="14">
         <v>41</v>
       </c>
@@ -10748,8 +11482,8 @@
       </c>
     </row>
     <row r="408" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="122"/>
-      <c r="B408" s="110"/>
+      <c r="A408" s="115"/>
+      <c r="B408" s="101"/>
       <c r="C408" s="13">
         <v>42</v>
       </c>
@@ -10758,8 +11492,8 @@
       </c>
     </row>
     <row r="409" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="122"/>
-      <c r="B409" s="110"/>
+      <c r="A409" s="115"/>
+      <c r="B409" s="101"/>
       <c r="C409" s="14">
         <v>43</v>
       </c>
@@ -10768,8 +11502,8 @@
       </c>
     </row>
     <row r="410" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="122"/>
-      <c r="B410" s="110"/>
+      <c r="A410" s="115"/>
+      <c r="B410" s="101"/>
       <c r="C410" s="13">
         <v>44</v>
       </c>
@@ -10778,8 +11512,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="122"/>
-      <c r="B411" s="110"/>
+      <c r="A411" s="115"/>
+      <c r="B411" s="101"/>
       <c r="C411" s="14">
         <v>45</v>
       </c>
@@ -10788,8 +11522,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="122"/>
-      <c r="B412" s="110"/>
+      <c r="A412" s="115"/>
+      <c r="B412" s="101"/>
       <c r="C412" s="13">
         <v>46</v>
       </c>
@@ -10798,8 +11532,8 @@
       </c>
     </row>
     <row r="413" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="122"/>
-      <c r="B413" s="110"/>
+      <c r="A413" s="115"/>
+      <c r="B413" s="101"/>
       <c r="C413" s="14">
         <v>47</v>
       </c>
@@ -10808,8 +11542,8 @@
       </c>
     </row>
     <row r="414" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="122"/>
-      <c r="B414" s="110"/>
+      <c r="A414" s="115"/>
+      <c r="B414" s="101"/>
       <c r="C414" s="13">
         <v>48</v>
       </c>
@@ -10818,8 +11552,8 @@
       </c>
     </row>
     <row r="415" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="122"/>
-      <c r="B415" s="110"/>
+      <c r="A415" s="115"/>
+      <c r="B415" s="101"/>
       <c r="C415" s="20">
         <v>49</v>
       </c>
@@ -10828,8 +11562,8 @@
       </c>
     </row>
     <row r="416" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="122"/>
-      <c r="B416" s="110"/>
+      <c r="A416" s="115"/>
+      <c r="B416" s="101"/>
       <c r="C416" s="10">
         <v>50</v>
       </c>
@@ -10838,8 +11572,8 @@
       </c>
     </row>
     <row r="417" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="122"/>
-      <c r="B417" s="110"/>
+      <c r="A417" s="115"/>
+      <c r="B417" s="101"/>
       <c r="C417" s="20">
         <v>51</v>
       </c>
@@ -10848,8 +11582,8 @@
       </c>
     </row>
     <row r="418" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="122"/>
-      <c r="B418" s="110"/>
+      <c r="A418" s="115"/>
+      <c r="B418" s="101"/>
       <c r="C418" s="10">
         <v>52</v>
       </c>
@@ -10858,8 +11592,8 @@
       </c>
     </row>
     <row r="419" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="122"/>
-      <c r="B419" s="110"/>
+      <c r="A419" s="115"/>
+      <c r="B419" s="101"/>
       <c r="C419" s="23">
         <v>53</v>
       </c>
@@ -10868,8 +11602,8 @@
       </c>
     </row>
     <row r="420" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="122"/>
-      <c r="B420" s="110"/>
+      <c r="A420" s="115"/>
+      <c r="B420" s="101"/>
       <c r="C420" s="13">
         <v>54</v>
       </c>
@@ -10878,8 +11612,8 @@
       </c>
     </row>
     <row r="421" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="122"/>
-      <c r="B421" s="110"/>
+      <c r="A421" s="115"/>
+      <c r="B421" s="101"/>
       <c r="C421" s="14">
         <v>55</v>
       </c>
@@ -10888,8 +11622,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="122"/>
-      <c r="B422" s="110"/>
+      <c r="A422" s="115"/>
+      <c r="B422" s="101"/>
       <c r="C422" s="13">
         <v>56</v>
       </c>
@@ -10898,8 +11632,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="122"/>
-      <c r="B423" s="110"/>
+      <c r="A423" s="115"/>
+      <c r="B423" s="101"/>
       <c r="C423" s="14">
         <v>88</v>
       </c>
@@ -10908,8 +11642,8 @@
       </c>
     </row>
     <row r="424" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="122"/>
-      <c r="B424" s="110"/>
+      <c r="A424" s="115"/>
+      <c r="B424" s="101"/>
       <c r="C424" s="13">
         <v>99</v>
       </c>
@@ -10918,10 +11652,10 @@
       </c>
     </row>
     <row r="425" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="123" t="s">
+      <c r="A425" s="116" t="s">
         <v>608</v>
       </c>
-      <c r="B425" s="118" t="s">
+      <c r="B425" s="120" t="s">
         <v>609</v>
       </c>
       <c r="C425" s="24">
@@ -10932,8 +11666,8 @@
       </c>
     </row>
     <row r="426" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="122"/>
-      <c r="B426" s="110"/>
+      <c r="A426" s="115"/>
+      <c r="B426" s="101"/>
       <c r="C426" s="13">
         <v>2</v>
       </c>
@@ -10942,8 +11676,8 @@
       </c>
     </row>
     <row r="427" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="122"/>
-      <c r="B427" s="110"/>
+      <c r="A427" s="115"/>
+      <c r="B427" s="101"/>
       <c r="C427" s="14">
         <v>3</v>
       </c>
@@ -10952,8 +11686,8 @@
       </c>
     </row>
     <row r="428" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="122"/>
-      <c r="B428" s="110"/>
+      <c r="A428" s="115"/>
+      <c r="B428" s="101"/>
       <c r="C428" s="13">
         <v>4</v>
       </c>
@@ -10962,8 +11696,8 @@
       </c>
     </row>
     <row r="429" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="122"/>
-      <c r="B429" s="110"/>
+      <c r="A429" s="115"/>
+      <c r="B429" s="101"/>
       <c r="C429" s="14">
         <v>5</v>
       </c>
@@ -10972,8 +11706,8 @@
       </c>
     </row>
     <row r="430" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="122"/>
-      <c r="B430" s="110"/>
+      <c r="A430" s="115"/>
+      <c r="B430" s="101"/>
       <c r="C430" s="13">
         <v>6</v>
       </c>
@@ -10982,8 +11716,8 @@
       </c>
     </row>
     <row r="431" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="122"/>
-      <c r="B431" s="110"/>
+      <c r="A431" s="115"/>
+      <c r="B431" s="101"/>
       <c r="C431" s="14">
         <v>7</v>
       </c>
@@ -10992,8 +11726,8 @@
       </c>
     </row>
     <row r="432" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="122"/>
-      <c r="B432" s="110"/>
+      <c r="A432" s="115"/>
+      <c r="B432" s="101"/>
       <c r="C432" s="13">
         <v>88</v>
       </c>
@@ -11002,8 +11736,8 @@
       </c>
     </row>
     <row r="433" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="124"/>
-      <c r="B433" s="111"/>
+      <c r="A433" s="117"/>
+      <c r="B433" s="105"/>
       <c r="C433" s="19">
         <v>99</v>
       </c>
@@ -11012,10 +11746,10 @@
       </c>
     </row>
     <row r="434" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="121" t="s">
+      <c r="A434" s="114" t="s">
         <v>617</v>
       </c>
-      <c r="B434" s="119" t="s">
+      <c r="B434" s="113" t="s">
         <v>618</v>
       </c>
       <c r="C434" s="13">
@@ -11026,8 +11760,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="122"/>
-      <c r="B435" s="110"/>
+      <c r="A435" s="115"/>
+      <c r="B435" s="101"/>
       <c r="C435" s="14">
         <v>2</v>
       </c>
@@ -11036,8 +11770,8 @@
       </c>
     </row>
     <row r="436" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="122"/>
-      <c r="B436" s="110"/>
+      <c r="A436" s="115"/>
+      <c r="B436" s="101"/>
       <c r="C436" s="13">
         <v>3</v>
       </c>
@@ -11046,8 +11780,8 @@
       </c>
     </row>
     <row r="437" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="122"/>
-      <c r="B437" s="110"/>
+      <c r="A437" s="115"/>
+      <c r="B437" s="101"/>
       <c r="C437" s="20">
         <v>4</v>
       </c>
@@ -11056,8 +11790,8 @@
       </c>
     </row>
     <row r="438" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="122"/>
-      <c r="B438" s="110"/>
+      <c r="A438" s="115"/>
+      <c r="B438" s="101"/>
       <c r="C438" s="10">
         <v>5</v>
       </c>
@@ -11066,8 +11800,8 @@
       </c>
     </row>
     <row r="439" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="122"/>
-      <c r="B439" s="110"/>
+      <c r="A439" s="115"/>
+      <c r="B439" s="101"/>
       <c r="C439" s="20">
         <v>6</v>
       </c>
@@ -11076,8 +11810,8 @@
       </c>
     </row>
     <row r="440" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="122"/>
-      <c r="B440" s="110"/>
+      <c r="A440" s="115"/>
+      <c r="B440" s="101"/>
       <c r="C440" s="10">
         <v>7</v>
       </c>
@@ -11086,8 +11820,8 @@
       </c>
     </row>
     <row r="441" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="122"/>
-      <c r="B441" s="110"/>
+      <c r="A441" s="115"/>
+      <c r="B441" s="101"/>
       <c r="C441" s="23">
         <v>8</v>
       </c>
@@ -11096,8 +11830,8 @@
       </c>
     </row>
     <row r="442" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="122"/>
-      <c r="B442" s="110"/>
+      <c r="A442" s="115"/>
+      <c r="B442" s="101"/>
       <c r="C442" s="13">
         <v>9</v>
       </c>
@@ -11106,8 +11840,8 @@
       </c>
     </row>
     <row r="443" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="122"/>
-      <c r="B443" s="110"/>
+      <c r="A443" s="115"/>
+      <c r="B443" s="101"/>
       <c r="C443" s="14">
         <v>10</v>
       </c>
@@ -11116,8 +11850,8 @@
       </c>
     </row>
     <row r="444" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="122"/>
-      <c r="B444" s="110"/>
+      <c r="A444" s="115"/>
+      <c r="B444" s="101"/>
       <c r="C444" s="13">
         <v>11</v>
       </c>
@@ -11126,8 +11860,8 @@
       </c>
     </row>
     <row r="445" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="122"/>
-      <c r="B445" s="110"/>
+      <c r="A445" s="115"/>
+      <c r="B445" s="101"/>
       <c r="C445" s="14">
         <v>12</v>
       </c>
@@ -11136,8 +11870,8 @@
       </c>
     </row>
     <row r="446" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="122"/>
-      <c r="B446" s="110"/>
+      <c r="A446" s="115"/>
+      <c r="B446" s="101"/>
       <c r="C446" s="13">
         <v>99</v>
       </c>
@@ -11146,10 +11880,10 @@
       </c>
     </row>
     <row r="447" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="123" t="s">
+      <c r="A447" s="116" t="s">
         <v>630</v>
       </c>
-      <c r="B447" s="118" t="s">
+      <c r="B447" s="120" t="s">
         <v>631</v>
       </c>
       <c r="C447" s="24">
@@ -11160,8 +11894,8 @@
       </c>
     </row>
     <row r="448" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="122"/>
-      <c r="B448" s="110"/>
+      <c r="A448" s="115"/>
+      <c r="B448" s="101"/>
       <c r="C448" s="13">
         <v>88888</v>
       </c>
@@ -11170,8 +11904,8 @@
       </c>
     </row>
     <row r="449" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="124"/>
-      <c r="B449" s="111"/>
+      <c r="A449" s="117"/>
+      <c r="B449" s="105"/>
       <c r="C449" s="19">
         <v>99999</v>
       </c>
@@ -11180,10 +11914,10 @@
       </c>
     </row>
     <row r="450" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="121" t="s">
+      <c r="A450" s="114" t="s">
         <v>632</v>
       </c>
-      <c r="B450" s="119" t="s">
+      <c r="B450" s="113" t="s">
         <v>633</v>
       </c>
       <c r="C450" s="13">
@@ -11194,8 +11928,8 @@
       </c>
     </row>
     <row r="451" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="122"/>
-      <c r="B451" s="110"/>
+      <c r="A451" s="115"/>
+      <c r="B451" s="101"/>
       <c r="C451" s="14">
         <v>88888</v>
       </c>
@@ -11204,8 +11938,8 @@
       </c>
     </row>
     <row r="452" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="122"/>
-      <c r="B452" s="110"/>
+      <c r="A452" s="115"/>
+      <c r="B452" s="101"/>
       <c r="C452" s="13">
         <v>99999</v>
       </c>
@@ -11214,584 +11948,593 @@
       </c>
     </row>
     <row r="453" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="125" t="s">
+      <c r="A453" s="116" t="s">
         <v>634</v>
       </c>
       <c r="B453" s="120" t="s">
         <v>635</v>
       </c>
-      <c r="C453" s="99">
+      <c r="C453" s="24">
+        <v>0</v>
+      </c>
+      <c r="D453" s="43" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="115"/>
+      <c r="B454" s="101"/>
+      <c r="C454" s="13">
         <v>1</v>
       </c>
-      <c r="D453" s="100" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="122"/>
-      <c r="B454" s="110"/>
-      <c r="C454" s="14">
+      <c r="D454" s="35" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="115"/>
+      <c r="B455" s="101"/>
+      <c r="C455" s="14">
         <v>2</v>
       </c>
-      <c r="D454" s="36" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="122"/>
-      <c r="B455" s="110"/>
-      <c r="C455" s="101">
+      <c r="D455" s="36" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="115"/>
+      <c r="B456" s="101"/>
+      <c r="C456" s="13">
         <v>3</v>
       </c>
-      <c r="D455" s="102" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="122"/>
-      <c r="B456" s="110"/>
-      <c r="C456" s="14">
+      <c r="D456" s="35" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="115"/>
+      <c r="B457" s="101"/>
+      <c r="C457" s="14">
         <v>4</v>
       </c>
-      <c r="D456" s="36" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="122"/>
-      <c r="B457" s="110"/>
-      <c r="C457" s="101">
+      <c r="D457" s="36" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="115"/>
+      <c r="B458" s="101"/>
+      <c r="C458" s="13">
         <v>88</v>
       </c>
-      <c r="D457" s="102" t="s">
+      <c r="D458" s="35" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="124"/>
-      <c r="B458" s="111"/>
-      <c r="C458" s="25">
+    <row r="459" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="117"/>
+      <c r="B459" s="105"/>
+      <c r="C459" s="25">
         <v>99</v>
       </c>
-      <c r="D458" s="44" t="s">
+      <c r="D459" s="44" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="123" t="s">
-        <v>640</v>
-      </c>
-      <c r="B459" s="118" t="s">
+    <row r="460" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="116" t="s">
         <v>641</v>
       </c>
-      <c r="C459" s="103">
+      <c r="B460" s="120" t="s">
+        <v>642</v>
+      </c>
+      <c r="C460" s="27">
         <v>0</v>
       </c>
-      <c r="D459" s="104" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="122"/>
-      <c r="B460" s="110"/>
-      <c r="C460" s="20">
+      <c r="D460" s="46" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="115"/>
+      <c r="B461" s="101"/>
+      <c r="C461" s="20">
         <v>1</v>
       </c>
-      <c r="D460" s="40" t="s">
+      <c r="D461" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="122"/>
-      <c r="B461" s="110"/>
-      <c r="C461" s="105">
+    <row r="462" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="115"/>
+      <c r="B462" s="101"/>
+      <c r="C462" s="10">
         <v>2</v>
       </c>
-      <c r="D461" s="106" t="s">
+      <c r="D462" s="33" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="122"/>
-      <c r="B462" s="110"/>
-      <c r="C462" s="23">
+    <row r="463" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="115"/>
+      <c r="B463" s="101"/>
+      <c r="C463" s="23">
         <v>3</v>
       </c>
-      <c r="D462" s="42" t="s">
+      <c r="D463" s="42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="122"/>
-      <c r="B463" s="110"/>
-      <c r="C463" s="101">
+    <row r="464" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="115"/>
+      <c r="B464" s="101"/>
+      <c r="C464" s="13">
         <v>4</v>
       </c>
-      <c r="D463" s="102" t="s">
+      <c r="D464" s="35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="122"/>
-      <c r="B464" s="110"/>
-      <c r="C464" s="14">
+    <row r="465" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="115"/>
+      <c r="B465" s="101"/>
+      <c r="C465" s="14">
         <v>5</v>
       </c>
-      <c r="D464" s="36" t="s">
+      <c r="D465" s="36" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="122"/>
-      <c r="B465" s="110"/>
-      <c r="C465" s="101">
+    <row r="466" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="115"/>
+      <c r="B466" s="101"/>
+      <c r="C466" s="13">
         <v>6</v>
       </c>
-      <c r="D465" s="102" t="s">
+      <c r="D466" s="35" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="122"/>
-      <c r="B466" s="110"/>
-      <c r="C466" s="14">
+    <row r="467" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="115"/>
+      <c r="B467" s="101"/>
+      <c r="C467" s="14">
         <v>7</v>
       </c>
-      <c r="D466" s="36" t="s">
+      <c r="D467" s="36" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="122"/>
-      <c r="B467" s="110"/>
-      <c r="C467" s="101">
+    <row r="468" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="115"/>
+      <c r="B468" s="101"/>
+      <c r="C468" s="13">
         <v>8</v>
       </c>
-      <c r="D467" s="102" t="s">
+      <c r="D468" s="35" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="122"/>
-      <c r="B468" s="110"/>
-      <c r="C468" s="14">
+    <row r="469" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="115"/>
+      <c r="B469" s="101"/>
+      <c r="C469" s="14">
         <v>9</v>
       </c>
-      <c r="D468" s="36" t="s">
+      <c r="D469" s="36" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="122"/>
-      <c r="B469" s="110"/>
-      <c r="C469" s="101">
+    <row r="470" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="115"/>
+      <c r="B470" s="101"/>
+      <c r="C470" s="13">
         <v>10</v>
       </c>
-      <c r="D469" s="102" t="s">
+      <c r="D470" s="35" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="122"/>
-      <c r="B470" s="110"/>
-      <c r="C470" s="14">
+    <row r="471" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="115"/>
+      <c r="B471" s="101"/>
+      <c r="C471" s="14">
         <v>11</v>
       </c>
-      <c r="D470" s="36" t="s">
+      <c r="D471" s="36" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="122"/>
-      <c r="B471" s="110"/>
-      <c r="C471" s="101">
+    <row r="472" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="115"/>
+      <c r="B472" s="101"/>
+      <c r="C472" s="13">
         <v>12</v>
       </c>
-      <c r="D471" s="102" t="s">
+      <c r="D472" s="35" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="122"/>
-      <c r="B472" s="110"/>
-      <c r="C472" s="14">
+    <row r="473" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="115"/>
+      <c r="B473" s="101"/>
+      <c r="C473" s="14">
         <v>13</v>
       </c>
-      <c r="D472" s="36" t="s">
+      <c r="D473" s="36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="122"/>
-      <c r="B473" s="110"/>
-      <c r="C473" s="101">
+    <row r="474" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="115"/>
+      <c r="B474" s="101"/>
+      <c r="C474" s="13">
         <v>14</v>
       </c>
-      <c r="D473" s="102" t="s">
+      <c r="D474" s="35" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="122"/>
-      <c r="B474" s="110"/>
-      <c r="C474" s="14">
+    <row r="475" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="115"/>
+      <c r="B475" s="101"/>
+      <c r="C475" s="14">
         <v>15</v>
       </c>
-      <c r="D474" s="36" t="s">
+      <c r="D475" s="36" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="122"/>
-      <c r="B475" s="110"/>
-      <c r="C475" s="101">
+    <row r="476" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="115"/>
+      <c r="B476" s="101"/>
+      <c r="C476" s="13">
         <v>16</v>
       </c>
-      <c r="D475" s="102" t="s">
+      <c r="D476" s="35" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="122"/>
-      <c r="B476" s="110"/>
-      <c r="C476" s="14">
+    <row r="477" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="115"/>
+      <c r="B477" s="101"/>
+      <c r="C477" s="14">
         <v>17</v>
       </c>
-      <c r="D476" s="36" t="s">
+      <c r="D477" s="36" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="122"/>
-      <c r="B477" s="110"/>
-      <c r="C477" s="101">
+    <row r="478" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="115"/>
+      <c r="B478" s="101"/>
+      <c r="C478" s="13">
         <v>18</v>
       </c>
-      <c r="D477" s="102" t="s">
+      <c r="D478" s="35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="122"/>
-      <c r="B478" s="110"/>
-      <c r="C478" s="14">
+    <row r="479" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="115"/>
+      <c r="B479" s="101"/>
+      <c r="C479" s="14">
         <v>19</v>
       </c>
-      <c r="D478" s="36" t="s">
+      <c r="D479" s="36" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="122"/>
-      <c r="B479" s="110"/>
-      <c r="C479" s="101">
+    <row r="480" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="115"/>
+      <c r="B480" s="101"/>
+      <c r="C480" s="13">
         <v>20</v>
       </c>
-      <c r="D479" s="102" t="s">
+      <c r="D480" s="35" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="122"/>
-      <c r="B480" s="110"/>
-      <c r="C480" s="20">
+    <row r="481" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="115"/>
+      <c r="B481" s="101"/>
+      <c r="C481" s="20">
         <v>21</v>
       </c>
-      <c r="D480" s="40" t="s">
+      <c r="D481" s="40" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="122"/>
-      <c r="B481" s="110"/>
-      <c r="C481" s="105">
+    <row r="482" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="115"/>
+      <c r="B482" s="101"/>
+      <c r="C482" s="10">
         <v>22</v>
       </c>
-      <c r="D481" s="106" t="s">
+      <c r="D482" s="33" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="122"/>
-      <c r="B482" s="110"/>
-      <c r="C482" s="20">
+    <row r="483" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="115"/>
+      <c r="B483" s="101"/>
+      <c r="C483" s="20">
         <v>23</v>
       </c>
-      <c r="D482" s="40" t="s">
+      <c r="D483" s="40" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="122"/>
-      <c r="B483" s="110"/>
-      <c r="C483" s="105">
+    <row r="484" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="115"/>
+      <c r="B484" s="101"/>
+      <c r="C484" s="10">
         <v>24</v>
       </c>
-      <c r="D483" s="106" t="s">
+      <c r="D484" s="33" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="122"/>
-      <c r="B484" s="110"/>
-      <c r="C484" s="23">
+    <row r="485" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="115"/>
+      <c r="B485" s="101"/>
+      <c r="C485" s="23">
         <v>25</v>
       </c>
-      <c r="D484" s="42" t="s">
+      <c r="D485" s="42" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="122"/>
-      <c r="B485" s="110"/>
-      <c r="C485" s="101">
+    <row r="486" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="115"/>
+      <c r="B486" s="101"/>
+      <c r="C486" s="13">
         <v>26</v>
       </c>
-      <c r="D485" s="102" t="s">
+      <c r="D486" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="122"/>
-      <c r="B486" s="110"/>
-      <c r="C486" s="14">
+    <row r="487" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="115"/>
+      <c r="B487" s="101"/>
+      <c r="C487" s="14">
         <v>27</v>
       </c>
-      <c r="D486" s="36" t="s">
+      <c r="D487" s="36" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="122"/>
-      <c r="B487" s="110"/>
-      <c r="C487" s="101">
+    <row r="488" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="115"/>
+      <c r="B488" s="101"/>
+      <c r="C488" s="13">
         <v>28</v>
       </c>
-      <c r="D487" s="102" t="s">
+      <c r="D488" s="35" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="122"/>
-      <c r="B488" s="110"/>
-      <c r="C488" s="14">
+    <row r="489" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="115"/>
+      <c r="B489" s="101"/>
+      <c r="C489" s="14">
         <v>29</v>
       </c>
-      <c r="D488" s="36" t="s">
+      <c r="D489" s="36" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="122"/>
-      <c r="B489" s="110"/>
-      <c r="C489" s="101">
+    <row r="490" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="115"/>
+      <c r="B490" s="101"/>
+      <c r="C490" s="13">
         <v>30</v>
       </c>
-      <c r="D489" s="102" t="s">
+      <c r="D490" s="35" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="122"/>
-      <c r="B490" s="110"/>
-      <c r="C490" s="14">
+    <row r="491" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="115"/>
+      <c r="B491" s="101"/>
+      <c r="C491" s="14">
         <v>31</v>
       </c>
-      <c r="D490" s="36" t="s">
+      <c r="D491" s="36" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="122"/>
-      <c r="B491" s="110"/>
-      <c r="C491" s="101">
+    <row r="492" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="115"/>
+      <c r="B492" s="101"/>
+      <c r="C492" s="13">
         <v>32</v>
       </c>
-      <c r="D491" s="102" t="s">
+      <c r="D492" s="35" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="122"/>
-      <c r="B492" s="110"/>
-      <c r="C492" s="14">
+    <row r="493" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="115"/>
+      <c r="B493" s="101"/>
+      <c r="C493" s="14">
         <v>41</v>
       </c>
-      <c r="D492" s="36" t="s">
+      <c r="D493" s="36" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="122"/>
-      <c r="B493" s="110"/>
-      <c r="C493" s="101">
+    <row r="494" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="115"/>
+      <c r="B494" s="101"/>
+      <c r="C494" s="13">
         <v>42</v>
       </c>
-      <c r="D493" s="102" t="s">
+      <c r="D494" s="35" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="122"/>
-      <c r="B494" s="110"/>
-      <c r="C494" s="14">
+    <row r="495" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="115"/>
+      <c r="B495" s="101"/>
+      <c r="C495" s="14">
         <v>43</v>
       </c>
-      <c r="D494" s="36" t="s">
+      <c r="D495" s="36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="122"/>
-      <c r="B495" s="110"/>
-      <c r="C495" s="101">
+    <row r="496" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="115"/>
+      <c r="B496" s="101"/>
+      <c r="C496" s="13">
         <v>44</v>
       </c>
-      <c r="D495" s="102" t="s">
+      <c r="D496" s="35" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="122"/>
-      <c r="B496" s="110"/>
-      <c r="C496" s="14">
+    <row r="497" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="115"/>
+      <c r="B497" s="101"/>
+      <c r="C497" s="14">
         <v>45</v>
       </c>
-      <c r="D496" s="36" t="s">
+      <c r="D497" s="36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="122"/>
-      <c r="B497" s="110"/>
-      <c r="C497" s="101">
+    <row r="498" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="115"/>
+      <c r="B498" s="101"/>
+      <c r="C498" s="13">
         <v>46</v>
       </c>
-      <c r="D497" s="102" t="s">
+      <c r="D498" s="35" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="122"/>
-      <c r="B498" s="110"/>
-      <c r="C498" s="14">
+    <row r="499" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="115"/>
+      <c r="B499" s="101"/>
+      <c r="C499" s="14">
         <v>47</v>
       </c>
-      <c r="D498" s="36" t="s">
+      <c r="D499" s="36" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="122"/>
-      <c r="B499" s="110"/>
-      <c r="C499" s="101">
+    <row r="500" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="115"/>
+      <c r="B500" s="101"/>
+      <c r="C500" s="13">
         <v>48</v>
       </c>
-      <c r="D499" s="102" t="s">
+      <c r="D500" s="35" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="122"/>
-      <c r="B500" s="110"/>
-      <c r="C500" s="14">
+    <row r="501" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="115"/>
+      <c r="B501" s="101"/>
+      <c r="C501" s="14">
         <v>49</v>
       </c>
-      <c r="D500" s="36" t="s">
+      <c r="D501" s="36" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="122"/>
-      <c r="B501" s="110"/>
-      <c r="C501" s="101">
+    <row r="502" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="115"/>
+      <c r="B502" s="101"/>
+      <c r="C502" s="13">
         <v>50</v>
       </c>
-      <c r="D501" s="102" t="s">
+      <c r="D502" s="35" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="122"/>
-      <c r="B502" s="110"/>
-      <c r="C502" s="20">
+    <row r="503" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="115"/>
+      <c r="B503" s="101"/>
+      <c r="C503" s="20">
         <v>51</v>
       </c>
-      <c r="D502" s="40" t="s">
+      <c r="D503" s="40" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="122"/>
-      <c r="B503" s="110"/>
-      <c r="C503" s="105">
+    <row r="504" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="115"/>
+      <c r="B504" s="101"/>
+      <c r="C504" s="10">
         <v>52</v>
       </c>
-      <c r="D503" s="106" t="s">
+      <c r="D504" s="33" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="122"/>
-      <c r="B504" s="110"/>
-      <c r="C504" s="20">
+    <row r="505" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="115"/>
+      <c r="B505" s="101"/>
+      <c r="C505" s="20">
         <v>53</v>
       </c>
-      <c r="D504" s="40" t="s">
+      <c r="D505" s="40" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A505" s="122"/>
-      <c r="B505" s="110"/>
-      <c r="C505" s="105">
+    <row r="506" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="115"/>
+      <c r="B506" s="101"/>
+      <c r="C506" s="10">
         <v>54</v>
       </c>
-      <c r="D505" s="106" t="s">
+      <c r="D506" s="33" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A506" s="122"/>
-      <c r="B506" s="110"/>
-      <c r="C506" s="23">
+    <row r="507" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="115"/>
+      <c r="B507" s="101"/>
+      <c r="C507" s="23">
         <v>55</v>
       </c>
-      <c r="D506" s="42" t="s">
+      <c r="D507" s="42" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="122"/>
-      <c r="B507" s="110"/>
-      <c r="C507" s="101">
+    <row r="508" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="115"/>
+      <c r="B508" s="101"/>
+      <c r="C508" s="13">
         <v>56</v>
       </c>
-      <c r="D507" s="102" t="s">
+      <c r="D508" s="35" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="122"/>
-      <c r="B508" s="110"/>
-      <c r="C508" s="14">
+    <row r="509" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="115"/>
+      <c r="B509" s="101"/>
+      <c r="C509" s="14">
         <v>88</v>
       </c>
-      <c r="D508" s="36" t="s">
+      <c r="D509" s="36" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="124"/>
-      <c r="B509" s="111"/>
-      <c r="C509" s="107">
+    <row r="510" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="117"/>
+      <c r="B510" s="105"/>
+      <c r="C510" s="15">
         <v>99</v>
       </c>
-      <c r="D509" s="108" t="s">
+      <c r="D510" s="37" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="511" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="512" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11894,38 +12637,31 @@
     <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B90:B119"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A459:A509"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="A317:A325"/>
-    <mergeCell ref="A326:A336"/>
-    <mergeCell ref="A337:A358"/>
-    <mergeCell ref="A359:A374"/>
-    <mergeCell ref="A375:A424"/>
-    <mergeCell ref="A425:A433"/>
-    <mergeCell ref="A211:A219"/>
-    <mergeCell ref="A220:A226"/>
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="A233:A283"/>
-    <mergeCell ref="A434:A446"/>
-    <mergeCell ref="A447:A449"/>
-    <mergeCell ref="A450:A452"/>
-    <mergeCell ref="A453:A458"/>
-    <mergeCell ref="A284:A305"/>
-    <mergeCell ref="A306:A316"/>
+    <mergeCell ref="B460:B510"/>
+    <mergeCell ref="B306:B316"/>
+    <mergeCell ref="B317:B325"/>
+    <mergeCell ref="B326:B336"/>
+    <mergeCell ref="B337:B358"/>
+    <mergeCell ref="B359:B374"/>
+    <mergeCell ref="B375:B424"/>
+    <mergeCell ref="B425:B433"/>
+    <mergeCell ref="B434:B446"/>
+    <mergeCell ref="B447:B449"/>
+    <mergeCell ref="B450:B452"/>
+    <mergeCell ref="B453:B459"/>
+    <mergeCell ref="B284:B305"/>
+    <mergeCell ref="B120:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="B194:B210"/>
+    <mergeCell ref="B211:B219"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="B227:B232"/>
+    <mergeCell ref="B233:B283"/>
     <mergeCell ref="A140:A143"/>
     <mergeCell ref="A194:A210"/>
     <mergeCell ref="A120:A130"/>
@@ -11942,32 +12678,40 @@
     <mergeCell ref="A82:A87"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A90:A119"/>
-    <mergeCell ref="B284:B305"/>
-    <mergeCell ref="B120:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B194:B210"/>
-    <mergeCell ref="B211:B219"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="B227:B232"/>
-    <mergeCell ref="B233:B283"/>
-    <mergeCell ref="B459:B509"/>
-    <mergeCell ref="B306:B316"/>
-    <mergeCell ref="B317:B325"/>
-    <mergeCell ref="B326:B336"/>
-    <mergeCell ref="B337:B358"/>
-    <mergeCell ref="B359:B374"/>
-    <mergeCell ref="B375:B424"/>
-    <mergeCell ref="B425:B433"/>
-    <mergeCell ref="B434:B446"/>
-    <mergeCell ref="B447:B449"/>
-    <mergeCell ref="B450:B452"/>
-    <mergeCell ref="B453:B458"/>
+    <mergeCell ref="A434:A446"/>
+    <mergeCell ref="A447:A449"/>
+    <mergeCell ref="A450:A452"/>
+    <mergeCell ref="A453:A459"/>
+    <mergeCell ref="A284:A305"/>
+    <mergeCell ref="A306:A316"/>
+    <mergeCell ref="A460:A510"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="A317:A325"/>
+    <mergeCell ref="A326:A336"/>
+    <mergeCell ref="A337:A358"/>
+    <mergeCell ref="A359:A374"/>
+    <mergeCell ref="A375:A424"/>
+    <mergeCell ref="A425:A433"/>
+    <mergeCell ref="A211:A219"/>
+    <mergeCell ref="A220:A226"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="A233:A283"/>
+    <mergeCell ref="B90:B119"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A29:A38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="7" manualBreakCount="7">
     <brk id="81" max="16383" man="1"/>
     <brk id="143" max="16383" man="1"/>
@@ -11975,7 +12719,7 @@
     <brk id="283" max="16383" man="1"/>
     <brk id="358" max="16383" man="1"/>
     <brk id="424" max="16383" man="1"/>
-    <brk id="458" max="16383" man="1"/>
+    <brk id="459" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>